--- a/Coding sheet.xlsx
+++ b/Coding sheet.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FunDev\AHRM_Coding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23910" windowHeight="11370"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="Opinion_26471" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
     <author>Levashina, Julia</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
   <si>
     <t>Notes (anything that you found interesting)</t>
   </si>
@@ -81,9 +86,6 @@
 </t>
   </si>
   <si>
-    <t>UNITED STATES DISTRICT COURT FOR THE NORTHERN DISTRICT OF ILLINOIS, EASTERN DIVISION</t>
-  </si>
-  <si>
     <t>Around 12 years (hired sometime after April 1985-July 1997)</t>
   </si>
   <si>
@@ -147,9 +149,6 @@
     <t>22. Courts decision for employer  (0 - no, 1 - yes, 3 - partially yes)</t>
   </si>
   <si>
-    <t xml:space="preserve"> lied he left previous employer b/c it went out of business (in reality, he was fired)</t>
-  </si>
-  <si>
     <t>Newborne vs. University of Chicago</t>
   </si>
   <si>
@@ -168,14 +167,215 @@
     <t>Patient Transportation Attendant (transported [*3]  patients from one location to another on stretcher and in wheelchairs, assisted patients in and out of wheelchairs and assisted nurses in the handling of patients.</t>
   </si>
   <si>
-    <t>Patient Transportation Attendant (transported [*3]  patients from one location to another on stretcher and in wheelchairs, assisted patients in and out of wheelchairs and assisted nurses in the handling of patients.)</t>
+    <t xml:space="preserve">UNITED STATES DISTRICT COURT FOR THE DISTRICT OF COLUMBIA </t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>ADAM DELGADO, Plaintiff, v. JOHN ASHCROFT, Attorney General of the United States, Defendant.</t>
+  </si>
+  <si>
+    <t>four plaintiffs did not disclose information that the FBI subsequently discovered in its background check</t>
+  </si>
+  <si>
+    <t>Special Agent</t>
+  </si>
+  <si>
+    <t>I thought it was interesting that debts that were paid, but with incorrect timming were held against the candidate.</t>
+  </si>
+  <si>
+    <t>FINDINGS OF FACT AND CONCLUSIONS OF LAW</t>
+  </si>
+  <si>
+    <t>Findings of Fact</t>
+  </si>
+  <si>
+    <t>1 The plaintiffs are all male, and the masculine pronoun will be used throughout these findings for the sake of simplicity.</t>
+  </si>
+  <si>
+    <t>2 Souchet's testimony and the testimony of the other plaintiffs was received as part of plaintiffs' disparate impact case. Findings in the disparate impact case based on their testimony will not preclude any issues of fact in any subsequent disparate treatment trial involving these parties.</t>
+  </si>
+  <si>
+    <t>4 Plaintiffs objected to D. Ex. 6 because it had not been produced in discovery. I decided to hear Dr. Siskin's testimony on this exhibit and his statistical analysis of the information it contained, but to discount both the exhibit and the testimony if it proved to be unfairly prejudicial to plaintiffs. It has not turned out that way.</t>
+  </si>
+  <si>
+    <t>5 Neither Code 35 nor Code 36 was assigned to any of the plaintiffs. No explanation was proffered as to why these two codes were included in the analysis.</t>
+  </si>
+  <si>
+    <t>6 Selection rate is a reference to the EEOC's four-fifths rule (or "80 percent rule") discussed at Conclusion of Law 4, infra.</t>
+  </si>
+  <si>
+    <t>7 Rodrique's handwritten note in the case of Souchet does not appear of record, but the testimony established that her note was repeated virtually verbatim in the file copy of the letter sent to the applicant rescinding the conditional offer of appointment.</t>
+  </si>
+  <si>
+    <t>8 Maloy, indeed, had his own set of criteria, although it is unclear for what purposes they were used. He associated them with the mnemonic acronym "CarlaBFad": character, associations, reputation, loyalty, abilities, biases, finances, alcohol and drugs. 10/18 Tr. at 190.</t>
+  </si>
+  <si>
+    <t>4. Adam Delgado first applied to the FBI in 1990, after military service with the United States Air Force and having earned a Bachelor's Degree in Political Science at the University of Illinois at Champaign-Urbana. He was not hired at that time, because his score was not competitive. He applied again in 1994 and passed all the necessary tests, but his application was discontinued after FBI headquarters received information from Chicago's FBI Field Office that two special agents and a staffing assistant who had encountered Delgado in the application process had found his behavior arrogant and condescending. The FBI's coded reason for the discontinuation was "other."</t>
+  </si>
+  <si>
+    <t>6. Darren Glover, a police officer for Franklin Park, Illinois, was discontinued after the FBI found a pattern of violence or intimidating behavior in his history -- "a couple of fights in college" and a claim of domestic violence made (and later withdrawn) by his girlfriend -- that Glover had not disclosed in his Long Form 140 application. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [*11] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [*15]  13. Case files were reviewed by case specialists before they reached Rodrique. Thus, Tanina Austin wrote the initial memorandum regarding the case of Martinez, who was ultimately discontinued by Rodrique's "lack of candor" decision. Austin did not find that Martinez lacked candor, P. Ex. 20 and October 16, 2002 Trial Transcript ("10/16 Tr.") at 266. Cynthia Schlesinger, who conducted Martinez' personal security interview, thought that Martinez was telling the truth, P. Ex. 22. Austin relied on no particular set of guidelines, and did not rely on the adjudicative guidelines Rodrique had issued, 10/16 Tr. at 279. She made her recommendations on a case-by-case basis.</t>
+  </si>
+  <si>
+    <t>1. The process of selecting special agents of the Federal Bureau of Investigation is a highly structured one that, up to a point, has been carefully validated by experts in industrial organizational psychology. It begins (see Plaintiffs' Exhibit ("P. Ex.") 1, p. 13) with an application that describes the applicant's minimal qualifications and is followed by a battery of "Phase One" tests to measure abilities necessary for the job (id. at p. 23), cognitive abilities (id. at p. 25) and other critical skills (id. at p. 27). The applicant who successfully completes Phase One testing completes a "Long Form 140." The "Long Form 140" requires applicants to certify that all of the statements contained in the form are truthful, accu-rate, and complete under penalty [*2]  of perjury. A national review board then evaluates candidates, ranking them most competitive, competitive and least competitive. Then (depending on the needs of the FBI) a certain number are admitted to the Phase Two testing process. Phase Two consists of a structured interview (id. at p. 30) and a written ex-ercise. The structured interview is tape recorded and is graded according to "behaviorally-anchored reading scales" or bench-marked. Applicants who have gone through this process are given a "cut score," with the grades of the interview comprising 75 percent, and the written exercise 25 percent, of the weight. An applicant whose cut score is acceptable is given a conditional letter of appointment, after which he 1 must undergo a polygraph examination, a drug test, a medi-cal examination, a "personnel security interview," and a background investigation. If an applicant is deemed not "suit-able" after this process, the application is "discontinued," and the conditional letter of employment is rescinded. If, on the other hand, all goes well during this process, and the applicant subsequently obtains a security clearance from the National Security Office, he is offered a place in [*3]  the FBI training academy.</t>
+  </si>
+  <si>
+    <t>2. John Souchet, who holds a Bachelor of Arts from Northeast Illinois University and a Master of Public Administration from Illinois Institute of Technology, and who had worked as a police officer for the City of Chicago, completed Phase One of this process in 1996 and filled out a Long Form 140. He was given a conditional appointment letter on January 8, 1997. He passed the personal security interview, the polygraph, the drug test, and the medical examination, but his application was discontinued and his conditional appointment letter was rescinded. The FBI's reason for discontinuing his application was lack of candor: he had failed to list on his Form 140 part time employment he had had some six years earlier, when he was in college. The employment was at a Chicago law firm, where Souchet worked 12-13 hours per week helping to organize discovery documents. This [*4]  employment came to the attention of the FBI when its background check turned up an earlier background check done by the Office of Personnel Management, when Souchet was a candidate for employment with INS. The OPM report recited Souchet's statement (at the time) that he had not been fired from the law firm job but had instead quit after being told that he would be fired. The OPM report also re-cited the result of a check with the law firm, which had no employment record that was adverse to Souchet. Neverthe-less, concluding that Souchet had failed to reveal material information about his background on the Form 140, the FBI discontinued Souchet's application. 2</t>
+  </si>
+  <si>
+    <t>3. Gustavo Martinez applied for a special agent position in 1994,  [*5]  having obtained a Bachelor of Arts Degree from St. Xavier College in 1992 and having significant criminal justice qualifications. On his first application, he passed the written test but not the structured interview. He applied again in June 1998, this time successfully navigating Phases One and Two, and he was given a conditional appointment letter on June 26, 1998, P. Ex. 15. Martinez was discontin-ued for lack of candor. In his case, the FBI action was related to his outstanding debts. He had mentioned to several FBI employees during interviews or routine processing leading up to his background investigation that his credit was "so-so" and that he had several accounts overdue but was bringing them current. At his personal security interview, he told Cynthia Schlesinger that he owed about $ 280 for a CPA review course, about $ 200 to Cellular One as a penalty for early discontinuation of cellular telephone service, and another $ 40 fee assessed by Harris Bank, but that he had paid those accounts off. The FBI's background check determined that he had indeed paid them off, but not until after the personal security interview. Martinez's explanation that this was "pure oversight" was [*6]  not accepted by the FBI, and he was discontinued.</t>
+  </si>
+  <si>
+    <t>5. Lawrence Stewart, a member of the Chicago Police Department since 1993, with a Bachelor of Arts in History and a Master's Degree in Public Administration, applied to the FBI in September 1997 and was given a conditional letter of appointment in January 1998. He was discontinued for lack of candor because, at the threshold of his polygraph ex-amination, he disclosed a shoplifting incident that had occurred when he was in the Army. The polygraph examination disclosed no [*7]  deception in his recounting of the facts, but the background investigation unearthed a military rec-ord of the incident that was at odds with the statements Stewart had given to the polygraph examiner in some respects. Stewart had also failed to disclose this incident in his Long Form 140 application. See P. Ex. 28.</t>
+  </si>
+  <si>
+    <t>3 The FBI argued strenuously that since four plaintiffs did not disclose information that the FBI subsequently discovered in its background check, all plaintiffs except Delgado cannot prevail in this case because their "misrepresentations" made them unfit for employment. Notwithstanding the factual differences between the "misrepresentations" here and those in the case relied upon by the FBI, see Williams v. Boorstin, 213 U.S. App. D.C. 345, 663 F.2d 109, 114 (D.C. Cir. 1980) (a disparate treatment case where plaintiff was not found to be qualified for his position in part because he had misled employer with an "egregious" "record of continuous deceit"), there is evidence in this record that undercuts the assertion that "misrepresentations" automatically ren-dered these plaintiffs "unfit for employment": Steven Susson was offered a position as an FBI Special Agent, even though during the application process he failed to disclose employment information that was ultimately uncovered by the FBI's background check. See P. Ex. 46.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [*8]  7. Souchet, Martinez and Delgado are all Hispanic. Stewart and Glover are African-American. Thomas DiPrete, an expert statistician called by the plaintiffs, analyzed the "discontinuation rate" provided by the FBI in its responses to plaintiffs' first set of interrogatories (P. Ex. 11) using logistic regression analysis. He calculated the probability that the disparities between the discontinuation rates of Hispanics and whites, and the discontinuation rates of Afri-can-Americans and whites, could be caused by chance alone. For Hispanic applicants, he described that chance as five standard deviation units, or about one in one million. For African-Americans, he calculated six standard deviation units, or a less than a one-in-one-million chance that the disparity was caused by chance alone. The shortfall between the number of Hispanics actually given special agent positions and the number that would have been given special agent positions absent the disparity was 20 over the five year period of his study. The shortfall for African-Americans was 25 over the same period.</t>
+  </si>
+  <si>
+    <t>8. It developed at trial that the data upon which Dr. DiPrete performed his calculations, and the data provided by the [*9]  FBI in its response to interrogatories, P. Ex. 11, had been extracted by the FBI from computer records by re-quests for data relating only to special agent applicants discontinued for "derogatory information." The FBI assigned "Code 58" to that category. Of the five plaintiffs, only Delgado was assigned Code 58. Stewart was assigned Code 33, "derogatory military record," Martinez, Code 37, "credit report," Glover and Souchet, Code 67, "other." On the eve of trial, the FBI produced a printout (Defendant's Exhibit ("D. Ex.") 6) covering all of those categories, 4 as well as Code 35, "employment history," and Code 36, "court records." 5 The government's expert, Dr. Bernard R. Siskin, did not dis-pute Dr. DiPrete's findings of statistically significant disparity between the discontinuation rates of whites and of His-panics and African-Americans within Code 58, nor did he dispute Dr. DiPrete's shortfall findings of 20 Hispanic hires and 25 African-American hires within that Code. The data for the discontinuation codes assigned in the cases of Stew-art, Martinez, Glover and Souchet, however, yielded different and varying results. Code 33, "derogatory military rec-ord," had a statistically significant [*10]  disparity for African-Americans, a shortfall of three African-American spe-cial agent hires (over the five year period), and a selection rate of 98.6 percent. 6 See October 21, 2002 Trial Transcript ("10/21 Tr.") at 139. Code 37, the "credit rating" code assigned to Martinez, reflected a statistically significant disparity as to both Hispanics and African-Americans, shortfalls of five Hispanics and 33 African-Americans, but selection rates of 98.4 percent for Hispanics and 86.8 percent for African-Americans. 10/21 Tr. at 135-36. Code 67, the "other" cate-gory assigned to the cases of Glover and Souchet, showed a statistically significant disparity only with respect to Afri-can-Americans, shortfalls of seven African-Americans and fewer than one Hispanic, and selection rates of 99.8 percent for Hispanics and 96.9 for African-Americans. 10/21 Tr. at 133.</t>
+  </si>
+  <si>
+    <t>9. For the six codes included in the FBI printout, D. Ex. 6, the overall shortfall for the five year period in question was 45 Hispanics and 83 African-Americans, 10/21 Tr. at 143. The overall selection rate was 88.01 percent for Hispanics and 74.8 percent for African-Americans, 10/21 Tr. at 137. Analysis of discontinuations under the six codes taken to-gether showed a statistically significant disparity, as compared to whites, for both Hispanic and African-American ap-plicants. 10/21 Tr. at 137.</t>
+  </si>
+  <si>
+    <t>10. The FBI's assignment of discontinuation reasons, and of codes for the reasons, was a hit-or-miss proposition. Spe-cial Agent applications were all processed in FBI headquarters by the Bureau Applicant Employment Unit (BAEU), within the Applicant Processing Section, within the Administrative Services Division. During [*12]  the period covered by the applications of Stewart, Martinez, Glover, Souchet and Delgado, Patrick Maloy was Unit Chief of BAEU. Re-porting to him were several program managers. One of them (the only one who dealt with the applications of any of the five plaintiffs) was Therese Rodrique. Rodrique's decisions to hire or to discontinue special agent applicants were sub-ject to review and reversal by Maloy, but as a practical matter she was given that authority, and she exercised it. Her decisions were distilled into handwritten notes that set forth her reasons for discontinuation. For Martinez, the reason was "lack of candor with regard to credit history," P. Ex. 21. For Souchet, it was "lack of candor" related to his part-time law firm work and statements he made on his Form 140, P. Ex. 25. 7 For Stewart, the notation was "incident involving shoplifting and lack of candor/forthrightness regarding this matter in connection with his processing with the FBI," P. Ex. 41. Rodrique made no notation of the reason for Delgado's discontinuation. The only reasons that appear of rec-ord are that, during the application process, Delgado struck two special agents as arrogant, egotistical, snide, and [*13]  condescending, P. Ex. 50. For Glover, Rodrique's discontinuation reason reads "applicant indicated on his PD-140 that he has never been arrested or charged with any violation. Applicant was arrested on 3/28/87 for disorderly con-duct/fighting, on 3/25/84 for criminal mischief and assault, and on 3/24/84 for trespassing," P. Ex. 77.</t>
+  </si>
+  <si>
+    <t>11. The FBI issued "adjudicative guidelines" for agent suitability decisions, P. Ex. 4, in an effort to establish consistency and regulate workflow; these guidelines were prepared by Rodrique. She wrote them based on her own observations and without guidance from industrial psychologists. She did not base her own discontinuation decisions entirely on the adjudicative guidelines, however. Instead, she evaluated applicants according [*14]  to a number of what she called "dimensions," including cooperativeness, conscientiousness, emotional maturity, integrity/honesty, initiative, and judgment. These "dimensions," which she insisted were official FBI policy, turned out upon closer inspection to be crite-ria applied in the Probationary Agents Program (PAP), D. Ex. 18 -- dimensions of agents who had been commissioned as special agents and who were being evaluated after their one-or two-year probationary periods.</t>
+  </si>
+  <si>
+    <t>12. Patrick Maloy, a senior FBI agent, was unit chief of the Applicant Employment Unit from the summer of 1995 until February 2001. Maloy confirmed the testimony of Elizabeth Kolmstetter, who had been chief of the FBI's Per-sonnel Assessment and Research Unit, that there was never any validation of the suitability decision process. Maloy was involved in the preparation of the adjudicative guidelines, to the extent that he had "ongoing discussions" with Ro-drique about suitability issues, but he had no discussions with industrial psychologists about the guidelines after they were prepared. 8</t>
+  </si>
+  <si>
+    <t>14. Gail Jones was the applicant case specialist who worked on Stewart's case. She initially wanted a re-interview of Stewart concerning the shoplifting incident he had revealed just before his polygraph test, P. Ex. 37, but, after she re-viewed the military records of his arrest, she decided that those records were enough and did not ask for a re-interview, P. Ex. 39. She felt comfortable concluding on the basis of the documents that Stewart had lied, P. Ex. 40, and Rodrique agreed with her, P. Ex. 41.</t>
+  </si>
+  <si>
+    <t>15. Between the [*16]  applicant case specialists and the program manager were two supervising applicant case spe-cialists, Gail Carter and Tamara Maria Carpenter. Their testimony clouds the issue of what, if any, standards were em-ployed to review and evaluate the records of special agent applicants. Carter identified a group of policy memoranda, P. Ex. 16, and the adjudicative guidelines that she thought Therese Rodrique had created to provide some uniformity, P. Ex. 3, as the materials that guided her decision making, and she said that, when weighing the statements of individu-als against official records, she thought the official records carried more weight. Carpenter, who decided that Glover's file demonstrated a "pattern of inappropriate behavior," P. Ex. 76, said that in Glover's case she "looked at the whole entire case. . . . and made a judgment call." October 18, 2002 Trial Transcript ("10/18 Tr.") at 24. She acknowledged that one of the incidents attributed to Glover had been determined to be "unfounded," id. at 29, but, she said, that "doesn't mean that it did not happen," id. at 40, and she "still felt there was something there for her to make that allega-tion." Id. at 29. Carpenter [*17]  did not, at the time, think that Glover lacked candor. See id. at 34.</t>
+  </si>
+  <si>
+    <t>OPINION BY: JAMES ROBERTSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OPINION</t>
+  </si>
+  <si>
+    <t>Conclusions of Law</t>
+  </si>
+  <si>
+    <t>1. Jurisdiction. As a preliminary matter, defendant argues that the Court does not have jurisdiction to hear this case. Defendant bases its argument on 42 U.S.C. § 2000e-2(g), which provides that a failure to hire an applicant for a posi-tion is not an unlawful employment practice if the occupancy of the position is subject to a requirement imposed in the interest of national security, and the applicant does not fulfill that requirement. In support of its argument, defendant cites Molerio v. FBI, 242 U.S. App. D.C. 137, 749 F.2d 815 (D.C. Cir. 1984), where the Court of Appeals, in affirming summary judgment for defendant on a Title VII claim that the FBI's security clearance process had a disparate impact on persons of Cuban ancestry, stated that "42 U.S.C. § 2000e-2(g) specifically acknowledges the general validity of national security clearance requirements, and we hold as a matter of law that the mere fact that such requirements impose special disabilities on the basis of connection with particular foreign countries is not alone [*18]  evidence of discrimination." 749 F.2d at 823; see also Ryan v. Reno, 335 U.S. App. D.C. 12, 168 F.3d 520, 524 (D.C. Cir. 1999) ("An adverse employment action based on denial or revocation of a security clearance is not actionable under Title VII").</t>
+  </si>
+  <si>
+    <t>Molerio, Ryan, and the exemption provided for by 42 U.S.C. § 2000e-2(g), are not implicated in this case. None of the plaintiffs was discontinued as a result of a failure to obtain security clearance. This was made abundantly clear by Maloy, who testified that neither he nor anyone else in the FBI's applicant employment unit had anything to do with making national security decisions concerning applicants. 10/18 Tr. at 78.</t>
+  </si>
+  <si>
+    <t>Defendant presses this point, arguing that since the results of the background investigation are used to make both suit-ability determinations and to confer security clearances, this case is fundamentally indistinguishable from Molerio and Ryan. The argument is unpersuasive, in light of Maloy's testimony that the process that leads to suitability determina-tions is distinct from the process of deciding to grant a security clearance. If the suitability determination actually [*19]  did perform all of the functions of a security clearance, the subsequent security clearance process would be completely meaningless. Defendant's jurisdictional argument is rejected.</t>
+  </si>
+  <si>
+    <t>2. Disparate impact defined/burden of proof.  [HN1] If a facially neutral employment practice has an adverse effect on a protected group of people, it may be unlawful regardless of whether or not the employer's intent was discrimina-tory. See, e.g., Watson v. Fort Worth Bank &amp; Trust, 487 U.S. 977, 986-87, 101 L. Ed. 2d 827, 108 S. Ct. 2777 (1988). A prima facie case of unlawful disparate impact is established by identifying the challenged employment practice, show-ing its disparate impact on a protected group, and demonstrating a causal link between the employment practice and the disparate impact. See 42 U.S.C. §§ 2000e-2(k)(1)(A)(i), 2000e-2(k)(1)(B)(i); Wards Cove Packing Co. v. Atonio, 490 U.S. 642, 656-57, 104 L. Ed. 2d 733, 109 S. Ct. 2115 (1989). Once a prima facie case has been established, the burden of persuasion shifts to the employer to demonstrate that the challenged practice is job related for the position in question and that the practice is consistent with business necessity. See [*20]  42 U.S.C. §§ 2000e-2(k)(1)(A)(i). 9 If the employer succeeds in that demonstration, the plaintiff may yet ultimately prevail by proffering evidence of an effec-tive alternative test that would have less of an adverse impact. See 42 U.S.C. §§ 2000e-2(k)(1)(A)(ii); Wards Cove, 490 U.S. at 660.</t>
+  </si>
+  <si>
+    <t>9 This shift in the burden of persuasion was effected by the Civil Rights Act of 1991. See Rudder v. District of Columbia, 890 F.Supp. 23, 40 n.12 (D.D.C. 1995).</t>
+  </si>
+  <si>
+    <t>3. Statistical proof.  [HN2] Statistical analysis may be used to establish a prima facie case of discrimination, see Fra-zier v. Consol. Rail Corp., 271 U.S. App. D.C. 220, 851 F.2d 1447, 1450 (D.C. Cir. 1988), by showing, for example, that a perceived disparity in rates of selection is great enough to support an inference of discrimination. See Palmer v. Shultz, 259 U.S. App. D.C. 246, 815 F.2d 84, 91-92 (D.C. Cir. 1987); Watson, 487 U.S. at 994 (O'Connor, J., concurring)  [*21]  ("The plaintiff's statistical evidence must be sufficiently substantial to prove that the practice in question has caused the exclusion of job or promotion applicants because of their membership in a protected group"). An appropri-ate statistical analysis measures the probability that an observed disparity is due to chance. Generally in Title VII litiga-tion, a difference of 1.96 standard deviations or greater in the rates of selection of two groups -- representing a 5 per-cent or less chance that the disparity is a product of random occurrence -- may be considered statistically significant, and thus can establish a prima facie case of discrimination. See Frazier, 851 F.2d at 1452; Palmer, 815 F.2d at 96; Segar v. Smith, 238 U.S. App. D.C. 103, 738 F.2d 1249, 1282-83 (D.C. Cir. 1984), cert. denied, Meese v. Segar, 471 U.S. 1115, 86 L. Ed. 2d 258, 105 S. Ct. 2357 (1985); see also Hazelwood School Dist. v. United States, 433 U.S. 299, 309 n.14, 53 L. Ed. 2d 768, 97 S. Ct. 2736 (1977).</t>
+  </si>
+  <si>
+    <t>4. Plaintiffs' prima facie case. Here, the challenged employment practice is the FBI's process for making suitability de-terminations. The suitability determination process is unquestionably subjective, [*22]  and, while subjective deci-sion-making is not discriminatory per se, it is subject to disparate impact analysis, see Watson, 487 U.S. at 991. The testimony of Dr. DiPrete, alone or in combination with the testimony of defendant's expert Dr. Siskin, was sufficient to establish a prima facie case of disparate impact. See Findings of Fact 7-9.</t>
+  </si>
+  <si>
+    <t>The differing statistical disparities for Codes 58, 33, 37, and 67 -- not to mention Codes 35 and 36, which Dr. Siskin analyzed -- do not defeat this prima facie case, nor do they require parsing the prima facie case into subcategories code by code or minority by minority. Neither the FBI's selection of codes nor its assignment of a particular code to a partic-ular case is entitled to any deference: the testimony clearly establishes that both code selection and code assignment were essentially arbitrary. See Findings of Fact 10, 13, 15.</t>
+  </si>
+  <si>
+    <t>Defendant's reliance on what it calls the "80 percent" rule, more commonly referred to as the "four-fifths rule," is mis-placed. The EEOC has prescribed the four-fifths rule as a guide for determining the presence of adverse impact, see 29 C.F.R. § 1607.4(D) (2002) [*23]  :</t>
+  </si>
+  <si>
+    <t>A selection rate for any race, sex, [or] ethnic group which is less than four-fifths(4/5)(or eighty percent) of the rate for the group with the highest rate will generally be regarded . . . as evidence of adverse impact, while a greater than four-fifths rate will generally not be regarded . . . as evidence of adverse impact. Smaller differences in selection rate may nevertheless constitute adverse impact, where they are significant in both statistical and practical terms. . . .</t>
+  </si>
+  <si>
+    <t>Id. (emphasis supplied). The "four-fifths rule" deals with "selection rate," which is a measure of what some (including Dr. Siskin) consider the "practical significance" of statistical analysis. Application of this "rule" in this case code by code would defeat plaintiffs' prima facie case as to Codes 58, 33, 37 and 67, for both African-Americans and Hispanics. 10 Application of the "rule" across the board (i.e. to all six codes combined) would defeat the prima facie case for Hispan-ics, whose selection rate was 88.1 percent, but not for African-Americans, whose selection rate was 74.8 percent.</t>
+  </si>
+  <si>
+    <t>10 Dr. DiPrete agreed with Dr. Siskin that the "pass rates" for both African-Americans and Hispanics as to Code 58 were over 80%, thus satisfying the "80 percent rule." 10/16 Tr. at 178-79.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [*24]  I have concluded, however, that the "four-fifths rule" is not applicable here -- or, at least, that it will not be applied to supersede plaintiffs' showing of statistical significance. The facts of a leading case applying the "rule" show why. In Waisome v. Port Auth. of N.Y. and N.J., 948 F.2d 1370 (2d Cir. 1991), a statistically significant disparity was held insufficient to establish a prima facie case of disparate impact when the pass rate of African-American applicants was more than four-fifths that of white applicants, and when the shortfall of African-American applicants in one year was two. 948 F.2d at 1376. The Waisome decision supports application of the "four-fifths rule" when the hiring or promotion shortfall is de minimis. The shortfall established by this record -- 45 Hispanics and 83 African-Americans out of the 552 total applicants discontinued under these six codes in a five year span -- is hardly de minimis. 11</t>
+  </si>
+  <si>
+    <t>11 Dr. Siskin also discussed another statistic "which can aid a decisionmaker," 10/21 Tr. at 115, in deciding the practical signifi-cance of a disparity: representation. Representation measures how much the percentage of a given minority as part of the pool of people hired would change if the challenged process were not utilized. See id. at 117. Dr. Siskin testified that if no applicant had been discontinued under Code 58, the percentage of overall hires would have gone from 6.9% to 7.24% for Hispanics, and from 4.9% to 5.34% for African-Americans. See id. at 121-22. Defendant suggests that this representation statistic shows that the practical significance of discontinuation under Code 58 was de minimis. Again, however, it is the entire decision-making process that is under attack here. Discontinuation under any one code might only result in a minimal shift in representation, but the shift might well prove substantial if discontinuation under all of the codes is considered in its entirety. Dr. Siskin did not testify how the representation would differ if one considered together all six of the codes that he analyzed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [*25]  Furthermore, as courts in this Circuit have recognized, the reliability of the "four-fifths rule" has been criti-cized. See Frazier, 851 F.2d at 1451 ("The four-fifths rule has also been used with caution by some courts, but has been criticized as unreliable and overly simplistic") (internal citations omitted); Reynolds v. Sheet Metal Workers Local 102, 498 F. Supp. 952, 966 (D.D.C. 1980) ("The four-fifths rule' has recently been criticized as a rather arbitrary standard. . . .") (internal citation omitted); see also Watson, 487 U.S. at 995 n.3 ("[The four-fifths rule] has been criticized on tech-nical grounds and it has not provided more than a rule of thumb for the courts") (internal citations omitted). Some commentators and courts go even farther, stating that "where the four-fifths rule indicates lack of adverse impact but the disparity is statistically significant, the plaintiff should be able to establish adverse impact on the evidence of statis-tical significance." Ramona L. Paetzold &amp; Steven L. Willborn, The Statistics of Discrimination § 5.07 (2002); Bew v. City of Chicago, 979 F.Supp. 693, 697 (N.D. Ill. 1997) [*26]  (same); see also Groves v. Ala. State Bd. of Educ., 776 F. Supp. 1518, 1528 (M.D. Ala. 1991) (finding disparate impact by relying on statistical analysis even though selection rate passed four-fifths rule). Indeed, the EEOC regulation itself acknowledges that adverse impact may be present in a given case even if the four-fifths rule is passed. See 29 C.F.R. § 1607.4(D); Groves, 776 F.Supp. at 1528.</t>
+  </si>
+  <si>
+    <t>Viewing the shortfall numbers in conjunction with the evidence of statistical significance, and also considering the sus-pect reliability of the "four-fifths rule," I find that defendant's evidence regarding the "four-fifths rule" does not over-come plaintiffs' showing that the FBI's discontinuation procedure had a disparate impact on Hispanic and Afri-can-American applicants.</t>
+  </si>
+  <si>
+    <t>A final defense objection to plaintiffs' statistics was that Dr. DiPrete's analysis did not account for societal differences among applicants of different races; that is, that the perceived disparity could reflect (for example) the generally higher arrest rates for Hispanics and African-Americans in society as a whole, which are "factors completely outside [*27]  the FBI." 10/16 Tr. at 189. Even if it is permissible to consider societal differences among African-Americans, Hispan-ics and whites when evaluating a prima facie case, 12 any such differences are less likely to have come into play here than in a case where the applicants were taken at random from the general population. Dr. DiPrete explained that in his opinion, since the background investigation follows four levels of screening, differences in sociological background would, to some degree, be filtered out by the time a case reached the background check stage. In other words, the pop-ulation of individuals of all races given conditional letters of employment is much more homogeneous, in terms of so-cietal background factors such as arrest history, than the population as a whole. See 10/16 Tr. at 195. The Seventh Circuit Court of Appeals, in Allen v. Seidman, 881 F.2d 375 (7th Cir. 1989) (Posner, J.), took a similar view of plaintiffs' showing that an evaluation test had a disparate impact on African-Americans, because the mandatory year of experi-ence as a bank examiner prior to taking the test gave</t>
+  </si>
+  <si>
+    <t>reason to believe that the pool taking the test will [*28]  be reasonably homogeneous despite possible differences (not, by the way, proved in this case) in original entry qualifications, and this makes the very large disparity between blacks and whites in performance on the test suggestive of racial bias. . . . The Corporation's attack on the plaintiffs' statistical case amounts to a contention that unless a plaintiff eliminates all alternative hypotheses he must lose. That would raise the threshold of proof too high.  [HN3] All the plaintiff is required to present is enough evidence to warrant a finding that, more likely than not, the challenged test, criterion, or practice had a disparate impact. In a case like this, where the pool taking the challenged test is reasonably homogeneous in terms of qualifications and the racial disparity in results is very large, a simple statistical comparison will support a finding that the test had a disparate impact.</t>
+  </si>
+  <si>
+    <t>12 See Bouman v. Block, 940 F.2d 1211, 1227-28 (9th Cir. 1991) (court considered evidence that statistical disparity between men and women correlated with "other factors" as part of defendant's rebuttal case, not plaintiff's prima facie case).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [*29]  Allen, 881 F.2d at 379-80 (internal citation omitted) (emphasis supplied).</t>
+  </si>
+  <si>
+    <t>Furthermore, defendant here, much like defendant in Allen, failed to establish what societal background factors could have influenced the suitability determinations, and that any such factors are more prevalent in Hispanics and Afri-can-Americans. Indeed, taking as examples Delgado, discontinued under Code 58 ("Derogatory Background") for his allegedly arrogant attitude, and Souchet, discontinued under Code 67 ("Other") for failing to list previous employment on his Form 140, it is difficult to imagine what "background factors" may have generally affected the process.</t>
+  </si>
+  <si>
+    <t>5. Defendant's Showing of Business Necessity.  [HN4] In order to rebut a prima facie case of disparate impact, an employer must show that the challenged practice is related to the position and consistent with business necessity. The FBI would have to "show[], by professionally acceptable methods, [that its process is] predictive of or significantly cor-related with important elements of work behavior which comprise or are relevant to the job or jobs for which candi-dates are being evaluated." Albemarle Paper Co. v. Moody, 422 U.S. 405, 431, 45 L. Ed. 2d 280, 95 S. Ct. 2362 (1975) [*30]  (internal quotation omitted).</t>
+  </si>
+  <si>
+    <t>Defendant attempted to meet that burden with testimony that such attributes as candor, ability to deal with others, and judgment are invaluable and integral to the position of FBI Special Agent. 10/18 Tr. at 157; 10/21 Tr. at 22. It is obvi-ous without the need for a validation study that FBI agents should possess such characteristics. The proposition that a thorough background check is warranted before an applicant is unconditionally offered a position as an FBI agent is undisputed. It is the decisionmaking process, however, and not the goals of that process, that is challenged here. See Crawford v. W. Elec. Co., 745 F.2d 1373, 1385-86 (11th Cir. 1984) (while legitimate business reasons may have war-ranted subjective system, defendant did not show that particular mechanics of its system were justified by business necessity).  [HN5] Defendant's burden at this stage was to show that its decisionmaking process -- and the subjectivity inherent in that process -- is job related and consistent with business necessity. See Mozee v. Am. Commercial Marine Serv. Co., 940 F.2d 1036, 1050 (7th Cir. 1991) ("In order to sustain a subjective [*31]  practice through a business necessity defense . . . an employer would have to argue that the subjectivity of the step is job-related -- in other words, that something about the position requires the selector to make a subjective evaluation of the applicant's abilities") (internal citations omitted); Banks v. City of Albany, 953 F.Supp. 28, 36 (N.D.N.Y. 1997) (defendant failed to establish business necessity because did not show that subjective decisionmaking was required to achieve the goal of finding most qualified candidates); Cook v. Billington, 1992 U.S. Dist. LEXIS 12519, No. 82-0400, 1992 WL 276936 at *5 (D.D.C. Aug. 14, 1992) (defendant failed to establish business justification when it offered nothing "concrete to link its subjective decision-making practices to a legitimate employment goal").</t>
+  </si>
+  <si>
+    <t>Defendant failed to sustain its burden. Indeed, it never really attempted to show why its particular decision-making process was necessary for hiring people who possessed the qualities that the FBI sought. The evidence showed a com-pletely subjective and internally inconsistent process, with people at different levels establishing their own idiosyncratic sets of criteria and reaching [*32]  inconsistent results. Different individuals could look at the same case file and have a completely different opinion as to whether that particular candidate lacked candor or not; this happened with Glover, whom Rodrique decided to discontinue for lack of candor, although Carpenter, who had reviewed the same case file, did not, at the time, believe that Glover lacked candor. 10/18 Tr. at 34. Similarly, Rodrique believed that Martinez lacked candor although both Tanina Austin, the applicant case specialist who wrote the derogatory memorandum on Martinez, and Cynthia Slessinger, the Special Agent who interviewed Martinez, did not. See 10/16 Tr. at 266, 275; P. Ex. 22.</t>
+  </si>
+  <si>
+    <t>There was a similar inconsistency among defendant's employees concerning what standards to use as guidance in making suitability decisions. Rodrique -- who is not an industrial psychologist -- created the Adjudicative Guidelines for this purpose. She used them, see 10/21 Tr. at 27, as did Carpenter, see 10/18 Tr. at 46, but not everyone did. Austin used the Guide for Setting Leads, D. Ex. 5, and not the Adjudicative Guidelines, 10/16 Tr. at 277, 279, even though Carpenter stated that the Guide for Setting Leads [*33]  does not relate to judging suitability. See 10/18 Tr. at 64.</t>
+  </si>
+  <si>
+    <t>Neither the Adjudicative Guidelines nor defendant's suitability determination process overall have ever been subjected to a validity test, although validity tests can be performed on such suitability determinations, according to the testimo-ny of plaintiffs' industrial psychologist Dr. Sheldon Zedeck. See 10/21 Tr. at 51. The FBI's failure to conduct a validity study may not be completely dispositive of the case. Cf. Uniform Guidelines on Employee Selection Procedures, 29 C.F.R. § 1607.6(B)(1) (2002) (validity studies need not be performed "where informal or unscored procedures are used. When an informal or unscored selection procedure which has an adverse impact is utilized, the user should eliminate the adverse impact, or modify the procedure to one which is a formal, scored or quantified measure or combination of measures and then validate the procedure in accord with these guidelines, or otherwise justify continued use of the procedure in accord with Federal law") (emphasis supplied). Nonetheless, the burden was on defendant to establish job-relatedness, and the absence of a validation [*34]  study does not help defendant's cause. Cf., e.g., Rudder, 890 F.Supp. at 40-43 (defendant established job relatedness through extensive validation study). 13</t>
+  </si>
+  <si>
+    <t>13 Since defendant failed to show that its subjective suitability decision-making process was job-related, plaintiff did not need to submit evidence of an effective alternative process.</t>
+  </si>
+  <si>
+    <t>The Court is sensitive to the fact that subjectivity will always play a role in the discontinuation decisions of the FBI. But, to paraphrase Judge Posner in Allen, while subjectivity cannot be entirely banished, it is difficult to believe that the FBI cannot do better than the process described at trial. 881 F.2d at 381. That process, with its inherent subjectivity and inconsistency, resulted in an adverse impact on Hispanics and African-Americans. Defendant failed to justify it.</t>
+  </si>
+  <si>
+    <t>JAMES ROBERTSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States District Judge </t>
+  </si>
+  <si>
+    <t>Opinion_26471!A1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +424,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,10 +457,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -262,8 +478,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,7 +759,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,7 +770,8 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +801,7 @@
     <col min="26" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -586,67 +812,67 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="X1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>0</v>
@@ -657,12 +883,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="4" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>19159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -707,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>5</v>
@@ -716,95 +942,95 @@
         <v>2</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="W3" s="4">
         <v>1</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>19159</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1999</v>
-      </c>
-      <c r="E4" s="4">
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>26471</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2003</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="4">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>3</v>
-      </c>
-      <c r="P4" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="4">
-        <v>2</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="X4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="230.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
@@ -856,6 +1082,9 @@
     <row r="53" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
     <row r="54" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="X4" location="Opinion_26471!A1" display="Opinion_26471!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -864,12 +1093,328 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <v>37770</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Coding sheet.xlsx
+++ b/Coding sheet.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
-    <sheet name="Opinion_26471" sheetId="3" r:id="rId2"/>
+    <sheet name="Opinion_2059" sheetId="4" r:id="rId2"/>
+    <sheet name="Opinion_26471" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="144">
   <si>
     <t>Notes (anything that you found interesting)</t>
   </si>
@@ -170,9 +171,6 @@
     <t xml:space="preserve">UNITED STATES DISTRICT COURT FOR THE DISTRICT OF COLUMBIA </t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>race</t>
   </si>
   <si>
@@ -369,13 +367,1270 @@
   </si>
   <si>
     <t>Opinion_26471!A1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PETER </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>EDWARDS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> v. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>STORAGE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> TECHNOLOGY CORP.</t>
+    </r>
+  </si>
+  <si>
+    <t>UNITED STATES DISTRICT COURT FOR THE EASTERN DISTRICT OF PENNSYLVANIA</t>
+  </si>
+  <si>
+    <r>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> opposed production of the documents, which were subject to a confidentiality provision in the settlement agreement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifically, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> stated that he had left Digital because he was recruited by another company and that his performance at Digital never was criticized and that he left Digital voluntarily as an employee in good standing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Edwards and StorageTek had agreed to a five-year employment contract that would have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  paid him in excess of $ 75,000 per year with potential bonuses and other earnings that would have paid him more than $ 166,000 his first year. The position also required that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> relocate from Boston to the Philadelphia area</t>
+    </r>
+  </si>
+  <si>
+    <t>MEMORANDUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giles, C.J. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plaintiff, Peter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards ("Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"), brings this diversity action against </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Storage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Technology Corp. ("StorageTek"), his former employer, seeking damages for breach of an employment contract. Based upon documents produced during discovery, StorageTek now seeks leave to amend its answer to add affirmative defenses and counterclaims based on fraud and negligent misrepresentation. For the reasons that follow, the motion is granted and StorageTek may file an amended answer with the requested counterclaims.</t>
+    </r>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <r>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> brought this suit in the Court of Common Pleas of Delaware County on August 1, 1997, alleging that he and StorageTek had agreed to a five-year employment contract that would have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  paid him in excess of $ 75,000 per year with potential bonuses and other earnings that would have paid him more than $ 166,000 his first year. The position also required that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> relocate from Boston to the Philadelphia area. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claims his employment was terminated without cause about three months after it had begun. On August 25, 1997, StorageTek removed the case to this court, pursuant to 28 U.S.C. §§ 1441(a) and 1446(b), basing jurisdiction on diversity of citizenship, 28 U.S.C. § 1332. On September 16, 1997, StorageTek filed an answer. On June 11, 1998, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> with leave of this court, filed an amended complaint, which StorageTek answered on June 19, 1998.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In December 1998, the parties came before this court for resolution of a discovery dispute. StorageTek sought production of certain documents from third party Digital Equipment Corp. ("Digital"), one of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> former employers, relating to his performance at Digital and his reasons for leaving that job. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> opposed production of the documents, which were subject to a confidentiality provision in the settlement agreement. Following in camera review, this court on December 23, 1998 ordered production of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  certain documents relating to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> departure from Digital.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">StorageTek believes, based on those documents, that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> provided false information about his employment history during employment discussions with StorageTek in March 1995. Specifically, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> stated that he had left Digital because he was recruited by another company and that his performance at Digital never was criticized and that he left Digital voluntarily as an employee in good standing. StorageTek claims that such statements were false and that they form the basis for state law claims of fraud and negligent misrepresentation, which StorageTek now seeks to assert as affirmative defenses and counterclaims.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Discussion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">StorageTek seeks leave to amend pursuant to Fed. R. Civ. P. 13(f) and 15(a).  [HN1] The former rule states that when a pleader has omitted a counterclaim through oversight, inadvertence, or excusable neglect, or "when justice requires," he may by leave of court set up the counterclaim in an amended pleading. Fed. R. Civ. P. 13(f). The latter rule permits a party generally to amend pleadings by leave of court and commands that "leave shall be freely given when justice so requires." Fed. R. Civ.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*4]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  P. 15(a). The two rules together "have been construed to require essentially the same standards for granting leave to add omitted counterclaims." Bryant v. Clark, 1991 U.S. Dist. LEXIS 14755, No. 91-4352, 1991 WL 212092, *1 (E.D. Pa. 1991) (citing cases); see also id. at *2 (quoting Perfect Plastics Indus., Inc. v. Cars &amp; Concepts, Inc., 758 F. Supp. 1080, 1081-82 (W.D. Pa. 1991) (noting that the language of Rule 13(f) is "especially flexible and allows the court to exercise its discretion and permit amendment whenever it seems desirable to do so"). The decision to grant or deny leave is within the sound discretion of the district court, however the command that leave is to be given freely when justice requires is a mandate that must be heeded.  Foman v. Davis, 371 U.S. 178, 182, 9 L. Ed. 2d 222, 83 S. Ct. 227 (1962); see Heyl &amp; Patterson, Int'l., Inc. v. F.D. Rich Housing of the Virgin Islands, Inc., 663 F.2d 419, 425 (3d Cir. 1981) (quoting 3 Moore's Federal Practice, P 15.08(2) at 15-59 (2d ed. 1980) ("courts have shown a strong liberality" in allowing amendments), cert. denied, 455 U.S. 1018, 72 L. Ed. 2d 136, 102 S. Ct. 1714 (1982).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN2] In determining whether to permit a defendant to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*5]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  amend its answer to add a counterclaim, the court must consider the presence or absence of a number of factors, including: 1) whether the counterclaim is compulsory; 2) whether the defendant has acted in good faith; 3) whether the defendant has unduly delayed filing the counterclaim; 4) whether the plaintiff would suffer undue prejudice if the amendment is allowed; and 5) whether the counterclaim is meritorious or whether amendment would be futile. See Fort Washington Resources, Inc. v. Tannen, 153 F.R.D. 565, 566 (E.D. Pa. 1994); Bryant, 1991 WL 212092 at *2; Perfect Plastics, 758 F. Supp. at 1082; see also Heyl &amp; Patterson, 663 F.2d at 425 (quoting Foman, 371 U.S. 178 at 182).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN3] In the context of amending pleadings generally, the Third Circuit has held that "prejudice to the non-moving party is the touchstone for the denial of the amendment." Bechtel v. Robinson, 886 F.2d 644, 652 (3d Cir. 1989) (quoting Cornell &amp; Co. v. Occupational Safety and Health Rev. Comm'n., 573 F.2d 820, 823 (3d Cir. 1978)). The non-moving party bears a heavy burden in challenging a proposed amended pleading. Heyl &amp; Patterson, 663 F.2d at 426. He must do more than merely claim </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*6]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  prejudice; it must show that it was unfairly disadvantaged or deprived of the opportunity to present facts or evidence which it would have offered had the amendments been filed timely.  Bechtel, 886 F.2d at 652 (citing Heyl &amp; Patterson Int'l., 663 F.2d 419 at 426). Absent such prejudice, the district court must ground its denial in one of the other factors, Bechtel, 886 F.2d at 652-53 (citing Heyl &amp; Patterson, 663 F.2d at 425), however the court should be hesitant to deny amendment, even at a later stage of the litigation, when no such prejudice has been demonstrated.  Perfect Plastics, 758 F. Supp. at 1082.</t>
+    </r>
+  </si>
+  <si>
+    <t>The court considers these factors in turn.</t>
+  </si>
+  <si>
+    <t>Undue Prejudice to the Plaintiff</t>
+  </si>
+  <si>
+    <r>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claims that he will suffer prejudice if the amendment is permitted, primarily because permitting the counterclaim will require additional, increased, and prolonged discovery. The parties will need to depose personnel from Digital, which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> fears will add "enormous expense to a simple case." Additional document discovery and review also will be necessary, related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> performance for two previous employers. This court has imposed a March 15 deadline for the completion </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*7]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  of discovery.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">However,  [HN4] the essential question under Rules 15(a) and 13(f) is whether asserting the counterclaim now will burden or disadvantage the plaintiff in a way that it would not have had the counterclaim been brought previously. See Heyl &amp; Patterson, 663 F.2d at 426 (holding that party opposing amendment "must show that it was unfairly disadvantaged or deprived of the opportunity to present facts or evidence which it would have offered" had the amendments been timely). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cannot show that type of actual prejudice in this case. The additional discovery related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> employment at Digital would have been necessary had StorageTek brought the counterclaim at the time of its initial answer in September 1997 or in its answer to the amended complaint in June 1998. The timing does not create prejudice that would not have existed previously. While it is true that StorageTek requested leave just six weeks prior to the court-ordered close of discovery, that alone is not sufficient prejudice to deny amendment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Moreover, the taking of this same discovery about </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> employment history with Digital would be necessary in any event, because many of the questions raised </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  by the proposed counterclaims would be raised by StorageTek's defenses to the breach of contract claim. See Perfect Plastics Indus., 758 F. Supp. at 1082 ("In all likelihood, the questions raised by the counterclaims would, in any event, be litigated in the action as defenses."). StorageTek initially inquired into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> employment history in order to establish a defense that it would not have entered into the contract had it known about </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> employment history with Digital, and might enable it to limit liability or damages. See McKennon v. Nashville Banner Publ'g Co., 513 U.S. 352, 360, 130 L. Ed. 2d 852, 115 S. Ct. 879 (1995) (addressing the use of after-acquired evidence in an employment discrimination case to shape the proper remedy and damages). A plaintiff asserting breach of contract can anticipate that one possible defense would be fraud-in-the-inducement of that contract and that such a defense may be asserted as a counterclaim. Therefore the need for such discovery, Perfect Plastics, 758 F. Supp. at 1082, and the assertion of a counterclaim, Bryant, 1991 WL 212092, at *2, both should be foreseeable to a plaintiff bringing this action. Given that,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*9]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  there is no indication that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> will be unduly prejudiced by this court granting StorageTek leave to file the amended answer.</t>
+    </r>
+  </si>
+  <si>
+    <t>Compulsory Counterclaim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [HN5] A counterclaim is compulsory, and therefore is waived if not asserted, "if it arises out of the transaction or occurrence that is the subject matter of the opposing party's claim." Fed. R. Civ. P. 13(a). The operative question in this circuit is whether the counterclaim bears a logical relationship to an opposing party's claim, which in turn includes claims that involve: "(1) many of the same factual issues; (2) the same factual and legal issues; or (3) offshoots of the same basic controversy between the parties." Xerox Corp. v. SCM Corp., 576 F.2d 1057, 1059 (3d Cir. 1978). Under the third, and perhaps the first, prong of this standard, the proposed counterclaims are compulsory and would be barred to StorageTek if leave to raise them in the instant case is denied. See id. at 1059; Perfect Plastics, 758 F. Supp. at 1082.</t>
+  </si>
+  <si>
+    <r>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> asserts that the claim and proposed counterclaim arise from different transactions or occurrences, that the breach of contract claims are based on StorageTek's failure to pay him earned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  wages, while the counterclaims are based on the question of whether or not he worked earning the wages. This argument adopts too narrow a construction of "offshoots of the same basic controversy." The parties allegedly agreed to a five-year employment contract and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> seeks, among other damages, five years of his base salary of $ 75,000. (Am. Compl. P 34). StorageTek wants to argue that, through his misrepresentations and omissions, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> committed fraud in order to induce them to enter into the contract. (Countercl. PP 18-20). The basic controversy is the employment relationship between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and StorageTek and that contract that resulted from that relationship. The claim of a breach of that contract and the defense and counterclaim of fraud in entering that contract arise from the same basic controversy, that employment relationship. The counterclaims are compulsory and the argument for permitting StorageTek to amend therefore is "especially compelling." Perfect Plastics, 758 F. Supp. at 1082 (quoting Spartan Grain &amp; Mill Co. v. Ayers, 517 F.2d 214, 220 (5th Cir. 1975)).</t>
+    </r>
+  </si>
+  <si>
+    <t>Undue Delay</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This court finds no evidence of undue delay by StorageTek in seeking to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*11]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  bring its counterclaims. StorageTek bases these counterclaims on the documents produced by Digital under court order in December and StorageTek moved this court for leave to amend within six weeks of obtaining those documents. StorageTek also sought the consent of opposing counsel prior to seeking leave from this court. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> separation from Digital was governed by a confidentiality provision, which prevented StorageTek from obtaining these documents and information in any other manner any earlier than December. Moreover, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> strenuously objected to production of the Digital documents and the information contained therein. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> thus cannot argue that StorageTek should have sought the documents at an earlier point in time; he presumably would have opposed release of the documents regardless of when StorageTek sought production.</t>
+    </r>
+  </si>
+  <si>
+    <t>Meritorious Counterclaim</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN6] This court may deny leave to amend where the counterclaim is not meritorious and amendment therefore would be futile. Heyl &amp; Patterson, 663 F.2d at 425. This requires the court to review the merits of the proposed pleading, applying the standards of Fed. R. Civ. P. 12(b)(6) and construing the allegations of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*12]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  counterclaim in the light most favorable to the defendant/counterclaimant.  Fort Washington Resources, 153 F.R.D. at 566. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> argues that the counterclaims are defective in two respects. The court rejects both arguments and holds that the counterclaims are meritorious for Rule 13(f) purposes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> argues that the counterclaims are barred by the two-year Pennsylvania Statute of Limitations on actions for fraud and negligent misrepresentation. 42 Pa. Cons. Stat. § 5524(7) ("Any other action or proceeding to recover damages for injury to person or property which is founded on negligent, intentional or otherwise tortious conduct . . . including deceit or fraud."). On its face, the counterclaim refers to events occurring in February 1995, meaning the statute of limitations lapsed in February 1997; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> argues that the counterclaims are time-barred.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN7] Pennsylvania recognizes an exception to the statute of limitations that "'delays the running of the statute until the plaintiff knew, or through the exercise of reasonable diligence should have known, of the injury and its cause.'" Beauty Time, Inc. v. VU Skin Systems, Inc., 118 F.3d 140, 144 (3d Cir. 1997) (quoting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*13]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  Urland v. Merrell-Dow Pharmaceuticals, 822 F.2d 1268, 1271 (3d Cir. 1987)). As already discussed, supra, StorageTek did not learn the factual basis for its fraud claims until the Digital documents were produced in December 1998. Because those documents and the information therein were governed by a confidentiality agreement, no amount of due diligence would have revealed the relevant details about </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> employment at Digital any earlier. The terms of the settlement agreement between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and Digital prohibited Digital from providing any such information. There was no way that StorageTek could have learned any of the information contained in the Digital documents in 1995 or any time prior to production in December. Therefore, the discovery rule applies, the two-year statute of limitations did not begin to run until December 1998, and these claims are timely. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 In addition, the counterclaim is not as untimely as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claims. Although Rule 13(f) is silent as to whether an amended pleading relates back to the date of the original pleading for statute of limitations purposes,  [HN8] Rule 15(c)(2) states than an amended pleading relates back if "the claim or defense asserted in the amended pleading arose out of the conduct, transaction, or occurrence set forth or attempted to be set forth in the original pleading." Courts and commentators have construed the two rules together so that once the standard of Rule 13(f) is satisfied, the general provisions of Rule 15 control, including the provision for relation back, the addition of counterclaims. See Perfect Plastics, 758 F. Supp. at 1083; 6 Wright &amp; Miller, Federal Practice and Procedure, § 1430 at 228 (2d ed. 1990). Because the amended answer and counterclaim relates back to the date of the original answer, filed in September 1997, StorageTek only is a few months beyond the running of the limitations period, not the full two years that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claims.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*14]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  Second, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> argues that the proposed counterclaim does not meet the heightened pleading requirements for fraud established by the rules of civil procedure.  [HN9] The rules require that in all claims for fraud or mistake, "the circumstances constituting fraud or mistake shall be stated with particularity." Fed. R. Civ. P. 9(b). The rules require a pleader to allege "(1) a specific false representation of material fact; (2) knowledge by the person who made it of its falsity; (3) ignorance of its falsity by the person to whom it was made; (4) the intention that it should be acted upon; and (5) that the [pleader] acted upon it to his damage." Shapiro v. UJB Fin. Corp., 964 F.2d 272, 284 (3d Cir.), cert. denied, 506 U.S. 934, 121 L. Ed. 2d 278, 113 S. Ct. 365 (1992). However, the Third Circuit has made clear regarding Rule 9(b) that "focusing exclusively on its particularity language is too narrow an approach and fails to take account of the general simplicity and flexibility contemplated by the rules." Seville Indus. Mach. Corp. v. Southmost Mach. Corp., 742 F.2d 786, 791 (3d Cir. 1984) (internal quotation marks omitted), cert. denied, 469 U.S. 1211, 84 L. Ed. 2d 327,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*15]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  105 S. Ct. 1179 (1985); Killian v. McCulloch, 850 F. Supp. 1239, 1253-54 (E.D. Pa. 1994). There simply must be some precision and some measure of substantiation in the pleading to satisfy the rule.  Killian, 850 F. Supp. at 1254.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">While not a model of specificity, the proposed counterclaim is sufficient under the standards of Rule 9(b). StorageTek alleges three occasions in which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> falsely stated that his performance at Digital had not been criticized and that he voluntarily terminated his employment--to a recruiter acting on StorageTek's behalf, to someone at StorageTek, and on his employment application--statements that StorageTek claims were false. (Countercl. PP 7-8, 13-15). StorageTek avers that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> knew his statements were false (Countercl. PP 9, 15), that he intended for StorageTek to rely on them (Countercl. PP 10, 16), and that StorageTek did rely on them to its detriment. (Countercl. PP 12, 17). This is sufficiently precise for purposes of Fed. R. Civ. P. 9(b).</t>
+    </r>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>For the foregoing reasons, the motion to amend the answer and add the requested counterclaims is granted.</t>
+  </si>
+  <si>
+    <t>An appropriate order follows.</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AND NOW, this 1st day </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*16]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  of March 1999, upon consideration of Defendant's Motion for Leave to Amend its Answer and Affirmative Defenses to Plaintiff's Amended Complaint and to Assert Counterclaims, it hereby is ORDERED that the motion is GRANTED. The clerk of court is directed to docket the Amended Answer, Affirmative Defenses, and Counterclaims as filed.</t>
+    </r>
+  </si>
+  <si>
+    <t>BY THE COURT:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMES T. GILES C.J.  </t>
+  </si>
+  <si>
+    <t>Opinion_2059!A1</t>
+  </si>
+  <si>
+    <t>I find the concept of a  fixed year contract interesting!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,13 +1660,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -439,6 +1687,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFCC0033"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFCC0033"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -459,9 +1755,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -475,16 +1771,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -769,9 +2093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +2125,7 @@
     <col min="26" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -958,26 +2282,26 @@
       </c>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>26471</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2003</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -1007,10 +2331,10 @@
         <v>4</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>9</v>
@@ -1018,22 +2342,90 @@
       <c r="W4" s="1">
         <v>0</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2059</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" ht="230.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="X5" s="1">
+      <c r="C5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1999</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="10"/>
+    </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
@@ -1084,6 +2476,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="X4" location="Opinion_26471!A1" display="Opinion_26471!A1"/>
+    <hyperlink ref="X5" location="Opinion_2059!A1" display="Opinion_2059!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1093,6 +2486,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>36220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1101,317 +2722,317 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
+      <c r="A105" s="7">
         <v>37770</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Coding sheet.xlsx
+++ b/Coding sheet.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23910" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
-    <sheet name="Opinion_2059" sheetId="4" r:id="rId2"/>
-    <sheet name="Opinion_26471" sheetId="3" r:id="rId3"/>
+    <sheet name="Opinion_47249" sheetId="5" r:id="rId2"/>
+    <sheet name="Opinion_2059" sheetId="4" r:id="rId3"/>
+    <sheet name="Opinion_26471" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="222">
   <si>
     <t>Notes (anything that you found interesting)</t>
   </si>
@@ -1624,13 +1625,6451 @@
   </si>
   <si>
     <t>I find the concept of a  fixed year contract interesting!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EDWARD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ELLSWORTH,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Plaintiff, v. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>POT LUCK</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ENTERPRISES, INC., d/b/a ASHLEY FURNITURE HOMESTORES, Defendant.</t>
+    </r>
+  </si>
+  <si>
+    <t>UNITED STATES DISTRICT COURT FOR THE MIDDLE DISTRICT OF TENNESSEE, NASHVILLE DIVISION</t>
+  </si>
+  <si>
+    <t>not listed</t>
+  </si>
+  <si>
+    <t>sex and race</t>
+  </si>
+  <si>
+    <t>He was in jail for 11 years for armed robbery, but "answered "no" to the inquiry of whether he had ever plead guilty, no contest, or been convicted of any crime". Additionally Ellsworth "had been convicted of or had plead guilty to crimes including obstruction of justice, assault on a police officer, and possession of a controlled substance.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> employment application provided that false information "may result in discharge," </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">a furniture sales associate </t>
+  </si>
+  <si>
+    <t>six months</t>
+  </si>
+  <si>
+    <t>less than 1 year</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OPINION BY: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ALETA A. TRAUGER</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> [*871]  MEMORANDUM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pending before the court is the Motion for Summary Judgment filed by the defendant, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pot Luck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Enterprises, Inc., d/b/a Ashley Furniture Homestores (Docket No. 17), to which the plaintiff has responded (Docket No. 21), and the defendant has replied (Docket No. 23). For the reasons discussed herein, the defendant's motion will be granted in part and denied in part.</t>
+    </r>
+  </si>
+  <si>
+    <t>BACKGROUND</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Edward </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> an African-American man and the plaintiff in this matter, was employed as a furniture sales associate for the defendant, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pot Luck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Enterprises, Inc., d/b/a Ashley Furniture Homestores ("Ashley Furniture"). </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> began working at Ashley Furniture in April 2007 and resigned, approximately six months later,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*872]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  in October 2007. As a sales associate, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> primary duty was to assist customers on the sales room floor. At times,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> multiple sales associates would work together on the floor, and all associates would work together on the floor on weekends. Ashley Furniture compensated sales associates based on a Master Commission Agreement and a Furniture Protection Bonus Plan, which guaranteed that associates would receive minimum wage as well as certain commissions and bonuses and described the limitations on those commissions and bonuses.</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Unless noted otherwise, the facts are drawn from the Plaintiff's Response to Defendant['s] Statement of Material Facts (Docket No. 23), as well as the depositions and other exhibits submitted by the parties.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> contends that, during his employment with Ashley Furniture, he repeatedly was subject to sexual and racial harassment. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> was initially propositioned for sex by certain of his co-workers approximately six weeks after he began his employment at Ashley Furniture and continued to be propositioned until he resigned. The propositions came from three of his co-workers, Michael Cressman, Charles Ftacek, and Greg Napper, all of whom are openly homosexual and were engaged in sexual relationships with each other. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> testified that, over a period of four and  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> one-half months, the three men propositioned him six to eight times. At some point, he informed them that he was not homosexual and was not interested in any sexual encounter. According to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> after he rejected their propositions, the men continued propositioning him, but did so in a more open, joking manner.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Also after </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> rejected the propositions, Cressman, Ftacek, and Napper began making crude sexual comments about </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> While the three men made sexual comments, jokes, and innuendos among themselves on a daily basis, they began making comments to or about </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> three to four times per week. According to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> typically, the commentary would begin with a sexually-focused conversation among the three men and then expand to encompass talking to or about other people. The men's verbal conduct with respect to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> included explicit, racially-stereotyped speculations on the size of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> genitalia and sexual abilities and general comments about homosexual behavior. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> testified that the commentary and propositions continued until his resignation in October 2007.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> testified, "there were so many comments -- I mean, there were comments  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**4]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of, 'Well, I bet your penis is the size of an elephant trunk. I hear black guys have big penis[es]. I bet you do it real good.' Just -- just all sorts of generalized comments about the size of my penis and propositioning me to have sex with them during lunch periods . . . talking about . . . they bet that my penis is down the side of my leg, that it's as big as an elephant's trunk . . . and all sorts of just derogatory comments concerning the size of my penis in [racially] stereotypical comments."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In addition to the racial nature of some of the sexual commentary, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> states that he was also subject to racial harassment. According to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ftacek used the "n-word" in a sexual context when referring to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth, Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> genitalia, or African-Americans' sexual attributes in general. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Furthermore, Johnie Young, an African-American employee, used the "n-word" on multiple occasions in a non-sexual context because he was jealous of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sales success. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*873]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  testified that, in one incident, Young became upset about a certain sale and shoved </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> called him the "n-word" repeatedly, and threatened to "do all kinds of things," including beating and killing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**5]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> According to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> several weeks later, Young said to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "[n-word], I can't stand you." Young would also occasionally mutter comments, some including the "n-word," under his breath in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> presence, and "a lot of antagonism" existed between Young and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> testified that Ftacek used the "n-word" in conjunction with some, but not all, of the sexual comments. It was "initially done jokingly when he was talking about my penis and the size of it or generally about black people's penises. . . 'Yeah, [n-words] got large penises,' and things like that. I mean, it's something that took place frequently. . . [and was] very offensive to me racially."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In addition to his allegations about Ftacek's and Young's use of racially offensive language, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> also alleges that Don Adcock, a store manager, referred to certain furniture as "being ghetto" and "for people in the 'hood" at a store sales meeting attended by employees and a sales manager. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> states that several employees laughed at Adcock's statements, which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> found offensive because "the  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**6]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> general connotation for that is that it's meant for black people who have less of a socioeconomic standing." </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> also testified that, at other times, he observed Adcock "laugh[ing] off" comments of a racial nature, "which kind of set the tone for that sort of behavior to be expected."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> states that, over a period of one to three months, he complained multiple times about the sexual and racial harassment he experienced. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> He testified that he spoke with Robert Ross and Jim Palmer, the sales managers; Don Adcock, the store manager; Johnny Hunter, the regional manager; and Tony Gallatin and Dan Parrish, whom </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> describes as the owners of the store.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 Ashley Furniture disputes that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> complained about either form of harassment. Ashley Furniture only acknowledges that it received complaints when Young initially called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the "n-word" and, after </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> resignation, through the Equal Employment Opportunity Commission ("EEOC").</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With respect to the racially offensive conduct, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> reports speaking to Ross and Palmer at least twice, and to Hunter once. After Young first used the "n-word" while allegedly shoving and threatening </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth, Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> reported  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**7]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the incident to Ross. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> states, "[Ross] said he would talk to Young, because it had gotten physical, that they would certainly have to do something about that . . . ." Ross required Young to apologize to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and Young did so later that week. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> reports that, when Young used the "n-word" again, he complained to both Ross and Palmer. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> testified, "I believe they talked to [Young] about it because the first incident got physical . . . but I'm not sure." </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claims that he also complained to Hunter about the second incident in which Young used the "n-word." Young did not apologize again, and his muttered remarks continued.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apart from his complaints about Young's racially offensive conduct, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> asserts that he repeatedly complained to Ashley Furniture about the propositions and sexual comments made by Cressman, Ftacek, and Napper. According to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> he initially complained when the sexual commentary and propositions continued after he had rejected the propositions of the three men. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> states that he first complained about the sexual harassment to Ross and, then, in a separate conversation on the same day, to Palmer, both of whom said  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> they would speak with Cressman, Ftacek, and Napper. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is unsure if they did so but testified that, in any event, the comments continued. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> reports making a total of five or six complaints to Ross and Palmer within one or two  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*874]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  months, and also making a complaint to Adcock. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> described one of his meetings with Palmer as "somewhat of a lengthy conversation," but stated that, otherwise, most of the conversations lasted for approximately five minutes. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> testified that, during the longer conversation, Palmer stated that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> was being targeted because of his sales success, and Palmer "reduced some things to writing" regarding the harassment that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> had experienced.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">According to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> his complaints to his managers did not stop the sexual propositions and commentary. He testified that the managers "were physically there during a lot of it and nothing took place. . . . they were kind of acquiescing in it." Thus, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> next approached Hunter to complain about the conduct, telling Hunter about the specific sexual comments and his previous unsuccessful complaints, and identifying Cressman, Ftacek, and Napper. Hunter told </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> that, while  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**9]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> he had heard about the complaints, he did not realize the situation was that serious and stated that he would "deal with it." </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is unsure whether Hunter spoke with anyone or took steps to "deal with" the problem. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> states that Hunter may not have done anything because "Mr. Hunter was pretty close friends with Mr. Ftacek," and the sexual commentary continued.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Next, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claims he approached Gallatin and Parrish, the store owners. According to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> he first complained to Gallatin about the sexual commentary generally and provided the names of the three responsible individuals. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> does not recall Gallatin's response but felt that Gallatin was not taking the allegations seriously, because he "belittled" the allegations and did not say that he would do anything about them. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> left the meeting with "the general impression that nothing would be done about it." </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> states he then went directly to Parrish's office and complained about the sexual harassment. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> testified that "Parrish's response was, verbatim, I 'need to go wear out some more shoe leather.'" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> interpreted Parrish's response to mean that Parrish did not care about the  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> harassment and wanted </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to get back to work on the sales floor. After that, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> felt "[t]hey were pretty much condoning the behavior from the upper levels on down," and he resolved to leave his job.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finally, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> alleges that, while he was employed at Ashley Furniture and after he complained about the harassing conduct he experienced, Ross withheld </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> commissions when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> made a sales error. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> alleges that this was in retaliation for his complaints. Although such withholdings are permitted by the Master Commission Agreement, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> testified that Ross did not withhold other sales associates' commissions when they made similar errors. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> further alleges that, in addition to the commissions withheld because of sales errors, other commissions were withheld inexplicably. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> resigned in late October and filed a complaint with the EEOC in December.</t>
+    </r>
+  </si>
+  <si>
+    <t>ANALYSIS</t>
+  </si>
+  <si>
+    <r>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> brings claims under Title VII of the Civil Rights Act of 1965, 42 U.S.C. § 1983, and the Tennessee Human Rights Act, asserting that he was subject to a hostile work environment based on sex and race, and retaliation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> also asserts that Ashley Furniture breached  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**11]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> his employment contract by failing to pay his sales commissions. Ashley Furniture has moved for summary judgment with respect to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claims.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> [*875]  I. Summary Judgment Standard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN1] Federal Rule of Civil Procedure 56(c) provides that summary judgment shall be granted if "the pleadings, the discovery and disclosure materials on file, and any affidavits show that there is no genuine issue as to any material fact and that the movant is entitled to judgment as a matter of law." Fed. R. Civ. P. 56(c). To prevail, the moving party must meet the burden of proving the absence of a genuine issue of material fact as to an essential element of the opposing party's claim. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Celotex Corp. v. Catrett,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 477 U.S. 317, 323, 106 S. Ct. 2548, 91 L. Ed. 2d 265 (1986); </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Logan v. Denny's, Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 259 F.3d 558, 566 (6th Cir. 2001).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN2] In determining whether the moving party has met its burden, the court must view the factual evidence and draw all reasonable inferences in the light most favorable to the nonmoving party. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Matsushita Elec. Indus. Co. v. Zenith Radio Corp.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 475 U.S. 574, 587, 106 S. Ct. 1348, 89 L. Ed. 2d 538 (1986); </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>McLean v. 988011 Ontario, Ltd.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 224 F.3d 797, 800 (6th Cir. 2000). "The court's function is not to weigh the evidence and determine the truth of the matters  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**12]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> asserted, 'but to determine whether there is a genuine issue for trial.'" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Little Caesar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Enters.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Inc. v. OPPCO, LLC,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 219 F.3d 547, 551 (6th Cir. 2000) (quoting </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Anderson v. Liberty Lobby, Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 477 U.S. 242, 249, 106 S. Ct. 2505, 91 L. Ed. 2d 202 (1986)).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN3] If the nonmoving party fails to make a sufficient showing on an essential element of the case with respect to which she has the burden, however, the moving party is entitled to summary judgment as a matter of law. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Williams v. Ford Motor Co.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 187 F.3d 533, 537-38 (6th Cir. 1999). To preclude summary judgment, the nonmoving party "must go beyond the pleadings and come forward with specific facts to demonstrate that there is a genuine issue for trial." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chao v. Hall Holding Co.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 285 F.3d 415, 424 (6th Cir. 2002). "The mere existence of a scintilla of evidence in support of the [nonmoving party's] position will be insufficient; there must be evidence on which the jury could reasonably find for the [nonmoving party]." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Shah v. Racetrac Petroleum Co.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 338 F.3d 557, 566 (6th Cir. 2003) (quoting </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Anderson,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 477 U.S. at 252). If the evidence offered by the nonmoving party is "merely colorable," or "not significantly probative," or not enough to lead a fair-minded jury to find  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**13]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for the nonmoving party, the motion for summary judgment should be granted. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Anderson,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 477 U.S. at 249-52. "A genuine dispute between the parties on an issue of material fact must exist to render summary judgment inappropriate." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hill v. White,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 190 F.3d 427, 431 (6th Cir. 1999) (citing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Anderson,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 477 U.S. at 247-49).</t>
+    </r>
+  </si>
+  <si>
+    <t>II. Hostile Work Environment Claims</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN4] Both Title VII and the Tennessee Human Rights Act protect against discrimination on the basis of race and sex. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> To establish a hostile work environment claim, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> must demonstrate that (1) he is a member of a protected class; (2) he was subject to unwelcome harassment; (3) the harassment was based on his status as a member of a protected class; (4) the harassment affected a term, condition, or privilege of employment; and (5) Ashley Furniture knew or should have known  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*876]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  about the harassment and failed to take corrective or preventative action. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Barrett v. Whirlpool Corp.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 556 F.3d 502, 515 (6th Cir. 2009).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 Tennessee law provides that claims under the Tennessee Human Rights Act are analyzed according to the same standards that govern claims brought under Title VII. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See, e.g., Tetro v. Elliot Popham Pontiac, Oldsmobile, Buick &amp; GMC Trucks, Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 173 F.3d 988, 993 (6th Cir. 1999)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**14]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (citing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Campbell v. Fla. Steel Corp.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 919 S.W.2d 26, 31 (Tenn. 1986)). The following analysis therefore applies equally to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claims under federal and state law.</t>
+    </r>
+  </si>
+  <si>
+    <t>A. Sexual Harassment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With respect to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sexual harassment claim, Ashley Furniture contends that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cannot establish that he is a member of a protected class or that the harassment he experienced was based on this membership.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In support of its argument, Ashley Furniture relies on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vickers v. Fairfield Medical Center,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 453 F.3d 757, 765 (6th Cir. 2006), in which the Sixth Circuit Court of Appeals held that Title VII does not protect against discrimination based on sexual orientation. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> However, in 1998,  [HN5] the Supreme Court ruled that Title VII permits sexual harassment suits brought by plaintiffs regarding harassers of the same sex in certain situations. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oncale v. Sundowner Offshore Servs., Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 523 U.S. 75, 80, 118 S. Ct. 998, 140 L. Ed. 2d 201 (1998). Such same-sex harassment claims may be brought in three circumstances: (1) when the harassing conduct is motivated by sexual desire; (2) when the conduct is the result of a general hostility to a certain sex in the workplace; or (3) when a plaintiff offers comparative evidence about differential  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**15]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> treatment in a mixed-sex workplace. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 80-81. Regardless of which of these three circumstances applies, the plaintiff must always prove that the conduct was not merely tinged with offensive sexual connotations, but actually constituted "discrimination . . . because of sex." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 80-81.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vickers,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the plaintiff brought a claim alleging harassment based on both sexual orientation and his failure to conform to gender stereotypes (sex-stereotyping). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Vickers,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 453 F.3d at 765 (citing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bibby v. Phila. Coca-Cola Bottling Co.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 260 F.3d 257, 265 (3d Cir. 2001)). The Sixth Circuit ruled that a plaintiff who was harassed because of his perceived homosexuality did not have access to a sex discrimination claim under Title VII. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 763-64. Further, although Title VII permits sex-stereotyping claims, the court held that the plaintiff failed to demonstrate that, while at work, he did not conform to traditional gender stereotypes in manner or appearance. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id. Vickers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> clarified that "a gender stereotyping claim should not be used to bootstrap protection for sexual orientation into Title VII." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 764 (quoting </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dawson v. Bumble &amp; Bumble,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 398 F.3d 211, 218 (2d Cir. 2005)).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 Contrary  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**16]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to Ashley Furniture's assertion, a same-sex harassment claim is available if any one of these circumstances apply; a plaintiff need not prove that all three approaches are relevant to his case.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN6] In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oncale,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the Supreme Court noted that courts infer that harassment is based on sex when conduct involves explicit or implicit proposals of sexual activity between members of the opposite sex. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 80. "The same chain of inference would be available to a plaintiff alleging same-sex harassment, if there were credible evidence that the harasser was homosexual." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The Supreme Court's ruling in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oncale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is consistent with a previous Sixth Circuit ruling holding that, if a male propositions another male because of sexual attraction, there is a presumption that the behavior is a form of harassment that occurs because of sex. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Yeary v. Goodwill Indus.-Knoxville, Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 107 F.3d 443, 448 (6th Cir. 1997). Further, after </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oncale,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the Sixth Circuit ruled that, when a same-sex harasser is homosexual, a court may conclude that the harassment would not have been directed at both sexes, and, thus, is based on sex. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See E.E.O.C. v. Harbert-Yeargin, Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 266 F.3d 498, 522 (6th Cir. 2001) (Guy, J., concurring  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**17]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in part and dissenting in part, and  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*877]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  providing the opinion of the court with respect to the same-sex harassment claim).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN7] </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vickers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is consistent with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oncale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and other cases permitting same-sex sexual harassment suits, because the permissible claims under </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oncale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> arise from discrimination that is based on sex, rather than on sexual orientation. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Oncale,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 523 U.S. at 80-81; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vickers,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 453 F.3d at 764. Although sexual orientation is not a basis for a Title VII claim, sexual orientation does not prevent a plaintiff from asserting an otherwise-valid sex discrimination claim where the harasser happens to be of the same sex. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Smith v. City of Salem,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 378 F.3d 566, 574-75 (6th Cir. 2004). Moreover, sexual orientation can contribute to a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>prima facie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> case of sex discrimination to the extent that the homosexuality of a harrasser provides an inference of sexual desire for a victim of the same sex. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Oncale,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 523 U.S. at 80. This inference is analogous to the inference made between opposite-sex parties, and thus does not expand the Title VII framework to encompass discrimination based on sexual orientation. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See id.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oncale,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Title VII extends to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> same-sex sexual harassment claim because  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**18]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> he alleges harassment based on sex, not sexual orientation, and thus asserts that the harassment was based on his status as a member of a protected class. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 80-81. Furthermore, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is not basing his claim on a gender conformity or sex-stereotyping argument, and thus </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vickers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> does not prohibit his claim, as it is not simply a sexual orientation discrimination claim masked as a sex-stereotyping claim. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Vickers,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 453 F.3d at 763-64. Further, because there is no dispute that all of the alleged harassers in the present case were homosexual, there is an inference that their conduct was based on sexual desire, and thus, sex. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Oncale,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 523 U.S. at 80; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Harbert-Yeargin,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 266 F.3d at 522. This inference is not rebutted, as there is no evidence that the harassers acted similarly toward female employees. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> deposition testimony, read in full, alleges sexual comments and propositions occurring both before and after he disclosed his heterosexuality. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Thus, the court may infer that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> alleged harassment was based on his sex, rather than on his sexual orientation, and Ashley Furniture is not entitled to summary judgment on these grounds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 Ashley Furniture cites  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**19]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> four same-sex suits in which the Sixth Circuit rejected claims "even though the allegations concerned harassment that was sexual in nature." (Docket No. 18 at 8.) However, these cases actually support </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claim, or, like </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vickers,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> involve the separate issue of sex-stereotyping. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See King v. Super Serv., Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 68 F. App'x 659, 663-64 (6th Cir. 2003) (finding that there was no sexual harassment because there was no indication that the defendant was homosexual, that there was general hostility to men in the workplace, or that women were treated comparatively better than men); </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bibby,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 260 F.3d at 264 (stating that harassment did not fit into any of the three </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oncale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> categories); </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Harbert-Yeargin,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 266 F.3d at 519-23 (finding no inference of sexual desire and no evidence of a general hostility towards one gender in the workplace); </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Spearman v. Ford Motor Co.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 231 F.3d 1080, 1085 (7th Cir. 2000) (finding that basis of harassment was perceived homosexuality, rather than sex).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9 Ashley Furniture's claim that the harassment only occurred after </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> disclosed his heterosexuality is based on a very selective reading of his deposition. There is no genuine issue of fact as to whether </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**20]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> alleges harassment based on sexual orientation. He testified, "their sexual comments or propositions being made from, I'd say, a month and a half after the time I got there until the time that I left," and "I let them know that I wasn't a homosexual, that I wasn't interested in having sex with them and that I would appreciate it if they quit approaching me in that fashion. And they did not."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*878]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  Though not raised by Ashley Furniture, the court is compelled to consider whether the sexual harassment experienced by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is sufficiently severe or pervasive to support his hostile work environment claim.  [HN8] To establish that the harassment affected a term, condition, or privilege of employment, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> must demonstrate that the workplace was "permeated with discriminatory intimidation, ridicule, and insult[] that is sufficiently severe or pervasive to alter the conditions of . . . employment and create an abusive working environment." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Harris v. Forklift Sys.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 510 U.S. 17, 21, 114 S. Ct. 367, 126 L. Ed. 2d 295 (1993) (citation and quotation omitted). Courts determining whether a hostile work environment exists must look to the totality of the circumstances, including "the frequency of the discriminatory conduct; its severity;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**21]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> whether it is physically threatening or humiliating, or a mere offensive utterance; and whether it unreasonably interferes with an employee's work performance." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Faragher v. City of Boca Raton,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 524 U.S. 775, 787, 118 S. Ct. 2275, 141 L. Ed. 2d 662 (1998) (citing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Harris,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 510 U.S. at 23). While harassment involving an element of physical invasion is more severe, verbal conduct alone can support a hostile work environment claim. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Black v. Zaring Homes, Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 104 F.3d 822, 826 (6th Cir. 1997). However, "[c]omplaints attacking the ordinary tribulations of the workplace, such as the sporadic use of abusive language, gender-related jokes, and occasional teasing," are insufficient to support such a claim. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Faragher,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 524 U.S. at 788 (quotation omitted). Words that merely have sexual content or connotations are also insufficient for a valid claim. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Hawkins v. Anheuser-Busch, Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 517 F.3d 321, 333 (6th Cir. 2008).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Black,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the Sixth Circuit considered whether harassing verbal conduct established a hostile work environment claim. In that case, the plaintiff alleged comments that occurred during eight meetings over four months. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Black,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 104 F.3d at 823. The comments included group banter about land for sale next to a Hooters  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**22]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Restaurant, references to the plaintiff as a "broad," and jokes about an individual's last name, which was pronounced "bosom." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 823-24. The comments that were directed at the plaintiff included innuendo about "sticky buns" and the defendant corporation's president's remark, "weren't you there [at a biker bar] Saturday night dancing on the tables?" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The court noted that the comments occurred at eight biweekly meetings, but focused on the relative severity of the conduct rather than its pervasiveness. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 824. The court concluded, in light of "the totality of the circumstances," that "the conduct does not appear to have been more than 'merely offensive," noting that, while not determinative, the fact that most of the comments were not directed at the plaintiff contributed to the conclusion that the harassment was not severe. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 826. The court therefore overturned a jury verdict for the plaintiff, holding that the conduct was not objectively severe or pervasive enough to support her hostile environment claim. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 827.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Subsequently, in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Abeita v. Transamerica Mailing, Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 159 F.3d 246, 248-50 (6th Cir. 1998), the Sixth Circuit again considered whether verbal harassment  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**23]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> established a valid hostile work environment claim. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Abeita,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in contrast to its ruling in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Black,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the court ruled that a magazine company supervisor's pervasive sexual comments over seven years were sufficient to support a Title VII claim. In that case, the plaintiff alleged that her supervisor described his desire to have sex with female employees or models that he arranged to have photographed in his presence. Only one of the alleged comments  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*879]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  was about the plaintiff -- the supervisor's speculation to the plaintiff about the color of her underwear. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 248. The supervisor also made multiple comments about the weights of female employees, but not about the weights of male employees. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 249. The court reversed the district court's grant of summary judgment to the defendant, ruling that the comments, while "approximately equal </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>severity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to those found in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Black,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">" "were commonplace, ongoing, and continual," which established pervasiveness sufficient to support a Title VII claim. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 252 (emphasis in original).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Williams v. General Motors Corp.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 187 F.3d 553, 559, 563 (6th Cir. 1999), the Sixth Circuit emphasized the importance of the totality of the circumstance approach. "[E]ven  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**24]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> where individual instances of sexual harassment do not on their own create a hostile environment, the accumulated effects of such incidents may result in a Title VII violation." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 563. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Williams,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the court considered, in the aggregate, fifteen incidents of predominantly verbal sexual harassment that occurred over one year, including the plaintiff's allegations about a supervisor's sexual invitation ("You can rub up against me anytime") and speculation on the plaintiff's sexual performance ("You would kill me. . . . I don't know if I can handle it, but I'd die with a smile on my face"). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 559. Additionally, the plaintiff reported co-workers' comments, including "Hey, slut," and more general derogatory remarks about women in the workplace. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The court found that the supervisor's remarks "were not merely crude, offensive, and humiliating, but also contained an element of physical invasion," in that the supervisor had put his face against the plaintiff's face and his arm around her neck. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 563. The court stated that the "Hey, slut" comment was more than "merely foul language in the workplace . . . [and] could be viewed by a jury as humiliating and fundamentally offensive  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**25]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to any woman in that work environment . . . ." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (quotation omitted). The Sixth Circuit further ruled that "the district court disaggregated the plaintiff's claims, contrary to the Supreme Court's 'totality of circumstances' directives, which robbed the incidents of their cumulative effect" and reversed the grant of summary judgment to the defendant. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 561, 564.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN9] Together, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Black</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Abeita,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Williams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> demonstrate the importance of the totality of circumstances approach in considering whether a plaintiff can establish a hostile work environment claim. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Burnett v. Tyco Corp.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 203 F.3d 980, 984 (6th Cir. 2000) (finding that the plaintiff's allegations did not support a hostile working environment claim because they were less severe or pervasive than those in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Black, Abeita,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Williams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). The verbal conduct of which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> complains goes beyond workplace teasing or off-color jokes and is closer in nature to the conduct in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Abeita</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Williams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> than to the conduct in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Black.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Along with multiple propositions for sex, the alleged commentary included frequent, open speculation about </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> genitalia and sexual performance, akin to the direct propositions and sexual comments at issue  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**26]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Williams.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> In addition, the fact that the comments frequently were directed at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> renders them more severe than more generalized comments would have been. Further, the commentary was also pervasive. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> reports being propositioned for sex between six and eight times throughout a six-month period during which he worked at Ashley Furniture. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> also alleges that sexual comments were made on a daily basis and were specifically directed to or about </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> three to four times each week. Like the conduct in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Abeita,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*880]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  the conduct that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> alleges was continuous, ongoing, and commonplace. Therefore, taking his allegations in the aggregate, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> has, at the very least, established that a genuine issue of fact exists as to whether he experienced sex-based harassment sufficiently severe or pervasive to support his Title VII hostile work environment claim.</t>
+    </r>
+  </si>
+  <si>
+    <t>B. Racial Harassment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With respect to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> race-based harassment claim, Ashley Furniture contends that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cannot establish that the harassment was sufficiently severe or pervasive to establish a hostile work environment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN10] A working environment dominated by continuing racial slurs may constitute a violation  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**27]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of Title VII. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Jackson v. Quanex Corp.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 191 F.3d 647, 662 (6th Cir. 1999) (citing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Torres v. Oakland,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 758 F.2d 147, 151 (6th Cir. 1985), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>and Johnson v. Bunny Bread Co.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 646 F.2d 1250, 1257 (8th Cir. 1981)). However, "[a]s the Supreme Court has long recognized, occasional utterances of racial epithets, although they engender offensive feelings in an employee, would not sufficiently alter the terms and conditions of employment to violate Title VII." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Allen v. Mich. Dep't of Corr.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 165 F.3d 405, 415 (6th Cir. 1999) (citing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Faragher,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 524 U.S. at 786).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> allegations of racial harassment do not support a Title VII claim for a racially discriminatory hostile work environment. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claims that he encountered racial harassment to the extent that (1) Young repeatedly called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the "n-word," and, in one instance, accompanied the epithet with a physical shove and verbal threats as a result of Young's jealousy over </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sales success; (2) Adcock laughed at employees' racial comments and referred to some furniture as "ghetto" and "meant for people in the 'hood"; and (3) the sexual harassment that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> experienced often involved racial stereotypes and the use of  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**28]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the "n-word." However, Young's use of the "n-word" and Adcock's offensive sales comments are better classified as relatively minor and isolated incidents of racial slurs or offensive jokes than severe or pervasive harassment. Additionally, the stereotyped sexual remarks, including Ftacek's use of the "n-word," are racially offensive but are better addressed in the context of sexual harassment. These incidents, in combination, are insufficiently severe or pervasive to maintain a Title VII claim, and summary judgment is, therefore, appropriate with respect to this claim.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">However, even though the racial harassment that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> experienced was not severe or pervasive enough to support a hostile working environment claim based exclusively on race, it acted to augment the overall hostile environment of the workplace. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Hafford,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 183 F.3d at 515. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hafford,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the Sixth Circuit discussed a plaintiff's harassment by coworkers on both religious and racial grounds, where the religion-based harassment failed to support a Title VII claim but the race-based harassment supported such a claim. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN11] The theory of a hostile-environment claim is that the cumulative effect of ongoing harassment is abusive.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**29]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> It would not be right to require a judgment against [plaintiff] if the sum of all of the harassment he experienced was abusive, but the incidents could be separated into several categories, with no one category containing enough incidents to amount to "pervasive" harassment. Although there is enough evidence of racial harassment for that claim to stand on its own, the district court  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*881]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  should allow at trial for consideration of the possibility that the racial animus of [plaintiff]'s co-workers was augmented by their bias against his religion.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 514-15 (citing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hicks v. Gates Rubber Co.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 833 F.2d 1406, 1415-17 (10th Cir. 1987)).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Similarly, the Tenth Circuit ruled that "incidents of racial harassment which may, by themselves, be insufficient to support . . . a hostile work environment claim can be combined with incidents of sexual harassment to prove a pervasive pattern of discriminatory harassment in violation of Title VII." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hicks,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 833 F.2d at 1415. Thus, while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claim of a racially hostile work environment falls short of the Title VII threshold, the racial harassment he experienced can be used in considering the intensity of the sex-based harassment and the overall pattern  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**30]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of behavior that contributed to a hostile working environment.</t>
+    </r>
+  </si>
+  <si>
+    <t>III. Retaliation Claim</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the Complaint, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> asserts that he was subject to retaliation to the extent that Ashley Furniture "[took] away his sales" and "failed to pay commissions that were due." (Docket No. 1 PP 8-9.)  [HN12] To establish a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>prima facie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> case of unlawful retaliation, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> must demonstrate that (1) he engaged in activity that Title VII protects; (2) Ashley Furniture knew that he engaged in this protected activity; (3) Ashley Furniture took an employment action against him that a reasonable employee would have found to be materially adverse; and (4) a causal connection existed between the protected activity and the adverse employment action. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See Randolph v. Ohio Dep't of Youth Servs.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 453 F.3d 724, 736 (6th Cir. 2006) (citing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Burlington N. &amp; Santa Fe Ry. Co. v. White,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 548 U.S. 53, 126 S. Ct. 2405, 165 L. Ed. 2d 345 (2006)).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ashley Furniture argues, however, that the after-acquired evidence rule bars </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> retaliation claim because Ashley Furniture would never have hired or retained </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> had it known about his criminal history, which included an armed robbery conviction. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> In discrimination cases, when an employer can demonstrate that,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**31]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> had it known of an employee's severe wrongdoing, it would have been justified in terminating an employee who otherwise had been terminated unlawfully, the after-acquired evidence rule limits the remedies available to an employee. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>McKennon v. Nashville Banner Publ. Co.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 513 U.S. 352, 362-63, 115 S. Ct. 879, 130 L. Ed. 2d 852 (1995). In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>McKennon,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the Supreme Court ruled that the after-acquired evidence rule does not provide a complete defense to termination claims brought under the Age Discrimination in Employment Act ("ADEA"), an anti-discrimination statute that shares "common substantive features" as well as a "common purpose" with Title VII. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 358; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">see also Wehr v. Ryan's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*882]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Family Steak Houses, Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 49 F.3d 1150, 1153 (6th Cir. 1995) (applying </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>McKennon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to Title VII case). "The private litigant who seeks redress for his or her injuries vindicates both the deterrence and the compensation objectives of [federal anti-discrimination statutes]. . . . It would not accord with this scheme if after-acquired evidence of wrongdoing that would have resulted in termination operates, in every instance, to bar all relief for an earlier violation of the Act[s]." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>McKennon,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 513 U.S. at 359. As such, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>McKennon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> places some limitations  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**32]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on the application of the after-acquired evidence rule in Title VII suits.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 It is undisputed that, on his employment application and background investigation authorization, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> answered "no" to the inquiry of whether he had ever plead guilty, no contest, or been convicted of any crime. He also left blank sections requesting information regarding any affirmative conviction. To the contrary, however, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> had previously been incarcerated for eleven years because of an armed robbery conviction. In addition, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> had been convicted of or had plead guilty to crimes including obstruction of justice, assault on a police officer, and possession of a controlled substance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11 Ashley Furniture heavily relies on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pre-McKennon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cases, including </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Johnson v. Honeywell Info. Sys., Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 955 F.2d 409 (6th Cir. 1992), which the Supreme Court expressly disapproved in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>McKennon,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for the proposition that the after-acquired evidence rule establishes a complete bar to a discrimination claim.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">However, the court need not determine the extent to which the after-acquired evidence rule applies to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> retaliation claim, because </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> has failed to establish the necessary causal connection  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**33]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to maintain this claim. The only potential causal connection that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> alleges is that Ross withheld </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> commissions at some point after </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> began complaining more frequently about the sexual and racial harassment he experienced.  [HN13] Although temporal proximity between protected conduct and an adverse employment action may "be coupled with other indicia of retaliatory conduct" to prove causation, temporal proximity, by itself, "is insufficient to find a causal connection." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Randolph,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 453 F.3d at 737. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> has not presented any other evidence of a causal connection and, thus, fails to meet the causation requirement for his retaliation claim. Summary judgment for the defendant is therefore appropriate with respect to this claim.</t>
+    </r>
+  </si>
+  <si>
+    <t>IV. Breach of Contract Claim</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finally, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claims that Ashley Furniture breached the employment agreement by "failing to pay commissions that were due." (Docket No. 1 P 10.) Ashley Furniture argues that the after-acquired evidence rule bars </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> breach of contract claim.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [HN14] An employer may use after-acquired evidence of employee misconduct in defense of a breach of contract claim for future wages if the employer can prove that it would  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**34]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> have fired the employee had it known of the misconduct. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Teter v. Republic Parking Sys., Inc.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 181 S.W.3d 330, 339 (Tenn. 2005). In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Teter,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the Tennessee Supreme Court ruled that an employer could refuse to pay an employee's severance pay when the employer discovered, post-termination, that the employee had been engaged in gross misconduct that would have justified termination without severance pay. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 339. "We agree that in a breach of contract case, after-acquired evidence of employee misconduct is a defense to a breach of contract action for wages and benefits lost as a result of the discharge if the employer can demonstrate that it would have fired the employee had it known of the misconduct." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at 340 (quotation omitted). The court distinguished the application of the after-acquired evidence rule to claims arising from a breach of contract claim from claims "which implicate major public policy concerns" -- such as those arising under Title VII. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at n.2 (citing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>McKennon,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 513 U.S. at 362-63).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ashley Furniture may invoke the after-acquired evidence rule as a defense to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claim for commissions payable after he was terminated. The Master Commission Agreement and  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**35]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Furniture Protection Bonus Plan warn that commissions are only payable to sales associates who are still employed and in good standing at the time of commission disbursement. Further, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> employment application provided that false information "may result in discharge," and Gallatin's sworn affidavit states that employees who  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*883]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  misrepresent material aspects of their applications are terminated, as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> would have been if Ashley Furniture had become aware of his criminal history and the fact that he had misrepresented this on his employment application. Thus, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> criminal history and his misstatements on his application serve as after-acquired evidence barring his claim for commissions withheld after his termination.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">However, Ashley Furniture may not invoke the after-acquired evidence rule with respect to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> claim for commissions payable prior to his termination, as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> has alleged that Ashley Furniture withheld commissions while he was still employed.  [HN15] "The after-acquired evidence doctrine has its foundation in the logic that an employee cannot complain after being wrongfully discharged because the individual is no worse off than he or she would have  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**36]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> been had the truth of his or her misconduct been present at the outset." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Crawford Rehab. Servs., Inc. v. Weissman,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 938 P.2d 540, 547 (Colo. 1997). Thus, the after-acquired evidence rule may be applied to future wages, including commissions dispersed after an employee's resignation, but is not applicable to claims for wages previously earned, including commissions withheld prior to an employee's termination. If Ashley Furniture retains commissions payable prior to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> resignation, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> will be in a worse position than if he had been terminated earlier, and Ashley Furniture will be unjustly enriched by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sales work. Thus, summary judgment will not be granted for the defendant with respect to this issue.</t>
+    </r>
+  </si>
+  <si>
+    <t>CONCLUSION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the reasons discussed herein, the defendant's Motion for Summary Judgment will be granted with respect to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> race-based hostile work environment and retaliation claims, as well as his breach of contract claim regarding commissions payable after his termination, and will be denied with respect to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ellsworth's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sex-based hostile work environment claim and his breach of contract claim regarding commissions payable prior to his termination.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An appropriate  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**37]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> order will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>enter.</t>
+    </r>
+  </si>
+  <si>
+    <t>/s/ Aleta A. Trauger</t>
+  </si>
+  <si>
+    <t>ALETA A. TRAUGER</t>
+  </si>
+  <si>
+    <t>United States District Judge</t>
+  </si>
+  <si>
+    <t>Opinion_47249!A1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1735,6 +8174,36 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFCC0033"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1783,9 +8252,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1809,6 +8275,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2093,9 +8562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,7 +8594,7 @@
     <col min="26" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2395,19 +8864,19 @@
       <c r="P5" s="1">
         <v>1</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>105</v>
       </c>
       <c r="S5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="12" t="s">
+      <c r="U5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="V5" s="11" t="s">
         <v>104</v>
       </c>
       <c r="W5" s="1">
@@ -2420,8 +8889,79 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C6" s="11"/>
+    <row r="6" spans="1:25" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>47249</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="7" spans="1:25" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
@@ -2477,6 +9017,7 @@
   <hyperlinks>
     <hyperlink ref="X4" location="Opinion_26471!A1" display="Opinion_26471!A1"/>
     <hyperlink ref="X5" location="Opinion_2059!A1" display="Opinion_2059!A1"/>
+    <hyperlink ref="X6" location="Opinion_47249!A1" display="Opinion_47249!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2485,6 +9026,489 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A48"/>
   <sheetViews>
@@ -2498,22 +9522,22 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>36220</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -2521,17 +9545,17 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2541,130 +9565,130 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="13"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
@@ -2672,17 +9696,17 @@
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="13"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
@@ -2690,29 +9714,29 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A108"/>
   <sheetViews>

--- a/Coding sheet.xlsx
+++ b/Coding sheet.xlsx
@@ -13,11 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
-    <sheet name="Opinion_19884" sheetId="7" r:id="rId2"/>
-    <sheet name="Opinion_16012" sheetId="6" r:id="rId3"/>
-    <sheet name="Opinion_47249" sheetId="5" r:id="rId4"/>
-    <sheet name="Opinion_2059" sheetId="4" r:id="rId5"/>
-    <sheet name="Opinion_26471" sheetId="3" r:id="rId6"/>
+    <sheet name="Opinion_7715" sheetId="8" r:id="rId2"/>
+    <sheet name="Opinion_19884" sheetId="7" r:id="rId3"/>
+    <sheet name="Opinion_16012" sheetId="6" r:id="rId4"/>
+    <sheet name="Opinion_47249" sheetId="5" r:id="rId5"/>
+    <sheet name="Opinion_2059" sheetId="4" r:id="rId6"/>
+    <sheet name="Opinion_26471" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="491">
   <si>
     <t>Notes (anything that you found interesting)</t>
   </si>
@@ -22993,6 +22994,1287 @@
   </si>
   <si>
     <t>Opinion_19884!A1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">THE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FIRESTONE TIRE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> AND RUBBER COMPANY, Petitioner, v. NATIONAL LABOR RELATIONS BOARD, Respondent</t>
+    </r>
+  </si>
+  <si>
+    <t>UNITED STATES COURT OF APPEALS FOR THE FOURTH CIRCUIT</t>
+  </si>
+  <si>
+    <t>a written application which required the applicant to state whether he had ever been "discharged or asked to resign by an employer" and which warned in bold-face type that any misrepresentation or falsification on the form would constitute "sufficient reason" for dismissal</t>
+  </si>
+  <si>
+    <t>Trowbridge denied he had been discharged by any previous employer. This answer was concededly false; he had actually been discharged by his last two employers</t>
+  </si>
+  <si>
+    <t>worker in a manufacturing plant</t>
+  </si>
+  <si>
+    <t>2 to 3 months</t>
+  </si>
+  <si>
+    <t>Opinion_7715!A1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OPINION BY: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUSSELL </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*1335]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  RUSSELL, Circuit Judge:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The employer, The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0033"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Firestone Tire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; Rubber Company, has petitioned to review and set aside, and the National Labor Relations Board in turn has cross-petitioned to enforce, an order of the Board finding that Firestone violated § 8(a)(3) and (1) of the Act by discharging one Clark Trowbridge.  </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> We deny enforcement.</t>
+    </r>
+  </si>
+  <si>
+    <t>1 219 NLRB No. 74.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  Trowbridge applied for and secured employment at the Wyandotte plant of Firestone  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*1336]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  on the basis of a written application which required the applicant to state whether he had ever been "discharged or asked to resign by an employer" and which warned in bold-face type that any misrepresentation or falsification on the form would constitute "sufficient reason" for dismissal. In answer, Trowbridge denied he had been discharged by any previous employer. This answer was concededly false; he had actually been discharged by his last two employers. Following his employment by Firestone, after his 60-day probationary period, he affiliated with the U.A.W., which was the collective bargaining agent at the plant, and was subsequently selected as a union steward. Some ten weeks after Trowbridge had been employed, his supervisor was told by another employee that Trowbridge had been discharged or asked to resign by two recent employers. After verifying this information, Firestone discharged Trowbridge. Trowbridge then invoked the grievance processes under the terms of the collective bargaining agreement prevailing in the plant. He proceeded unsuccessfully through the several steps provided </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  in such agreement for resolving the propriety of a discharge, short of final arbitration. The union, however, declined to seek final arbitration and did not seek relief on Trowbridge's behalf before the Board. Trowbridge individually, however, did file a charge with the Board and it was on the basis of this individual charge that the Board entered its order.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">At the outset, it should be noted that Firestone advanced a legitimate, non-discriminatory reason for Trowbridge's discharge. Firestone offered uncontradicted evidence that its practice was to discharge any employee upon discovery of a falsification of answers on his employment application. It supported this evidence with proof of several prior instances at this plant where, in applying this rule, it had discharged employees.  </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> On this evidence, the administrative law judge made a finding, adopted by the Board, that Firestone had a "long established, company-wide policy" of discharging employees for falsifying their employment applications.  </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Such a policy is neither unusual nor unreasonable. As the Court said in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Mueller Brass Co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. (5th Cir. 1975), 509 F.2d 704 at 713, " [HN1] Any employer has the right </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**4]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  to demand that its employees be honest and truthful in every facet of their employment. Absent an anti-union motivation, any employer has the right to discipline an employee for his dishonesty or untruthfulness." Nor does the Board really dispute this right of an employer to discipline for "untruthfulness" in an employee's employment application. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*1337]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  The basis of its finding is that, though a permissible ground for discharge existed, such ground was in this case "pretextual" and that the discharge under review was actually motivated by Trowbridge's aggressive union activity.</t>
+    </r>
+  </si>
+  <si>
+    <t>2 Firestone, also, submitted letters from a large number of its other plants detailing instances where employees had been discharged for falsification of employment applications, but the Administrative Law Judge denied admission on the ground that they were "hearsay." Firestone offered, it seems, to make proof through proper officials at these plants but opportunity to make such proof was denied. Whether this ruling was proper is unimportant in the light of the Board's express finding on this point.</t>
+  </si>
+  <si>
+    <t>The Board appears inexplicably to undertake to discount the evidence that Firestone at the Wyandotte plant had discharged other employees for falsification of employment applications by arguing that, while falsification was the reason given, there were other, more cogent reasons for those discharges. Such an argument would contradict the Board's own specific finding that Firestone had a "long established, company-wide policy" of discharging for such falsification and is entitled to no consideration for that reason in this proceeding.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**5]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>3 P. 12, Administrative Law Judge's Decision.</t>
+  </si>
+  <si>
+    <t>4 The Board itself in a number of decisions has recognized the legitimacy of a discharge for falsification of an employment application:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Whittaker Knitting Mills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (1973) 207 NLRB 1019, two employees, who were college graduates, had purposely misstated their educational background by failing to indicate that they were college graduates and had given incorrect information on prior employment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Big Three Industries, Inc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. (1971) 192 NLRB 370, the employee had omitted the information that he had been terminated as an employee by an earlier employer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Western Publishing Co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. (1971) 188 NLRB 245, the employment application included, as did that involved here, the statement above the applicant's signature that "I understand that any wilful misrepresentation of essential facts may be sufficient reason for dismissal." The employee in that case had concealed that he had been terminated as an employee by two prior employers.</t>
+    </r>
+  </si>
+  <si>
+    <t>In all these cases, discharge for falsification of the employment applications was found to be legitimate.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**6]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   [HN2]  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is the well-settled rule in this Circuit that when an employer demonstrates, as does Firestone here, that it had a good ground for the discharge of an employee apart from any antiunion animus or activity, it is not sufficient to establish a violation of the Act for the Board to declare that the discharge was "pretextual." </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> As the Court aptly put it in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Famet, Inc. v. N.L.R.B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. (9th Cir. 1974), 490 F.2d 293, 296, "'it is all too easy to say that adequate cause for discipline was seized upon as pretextual in the case of union representatives. * * * When good cause for criticism or discharge appears, the burden which is on the Board is not simply to discover some evidence of improper motive, but to find an affirmative and persuasive reason why the employer rejected the good cause and chose a bad one.'" </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "Were the rule otherwise, any employee who had been guilty of conduct warranting discharge could protect himself by openly engaging in union activities, and run for luck, a procedure well illustrated in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Billen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">." </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> It is accordingly clear that "illegal motive [in a discharge] cannot be based merely on the discharged employee's union organizational activity;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**7]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  and by offering only such proof," the Board cannot sustain the burden of proof which it must assume in a case such as this.  </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> And this is particularly so, when "analysis reduces the record to mere suspicion to support the Board's charges" of pretextual discharge, and the record "fails to provide sufficient integrity to sustain the examiner's and Board's finding" of pretextual discharge. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Patrick Plaza Dodge, Inc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. (4th Cir. 1975), 522 F.2d 804, 807; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Consolidated D. Elec. Co., Div. of C. Corp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. (4th Cir. 1972), 469 F.2d 1016, 1024-28; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Covington Motor Company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (4th Cir. 1965), 344 F.2d 136, 138; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Maphis Chapman Corporation v. N.L.R.B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. (4th Cir. 1966), 368 F.2d 298, 304; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hazel-Atlas Glass Co. v. National Labor Relations Bd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. (4th Cir. 1942) 127 F.2d 109, 114 and 117. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cf., N.L.R.B. v. Hanes Hosiery Division, Hanes Corp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. (4th Cir. 1969), 413 F.2d 457, 458.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 Quoting from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NLRB v. Billen Shoe Co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. (1st Cir. 1968), 397 F.2d 801, 803.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Other formulations of the same rule are set forth in these cases: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Patrick Plaza Dodge, Inc., supra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, 522 F.2d 807-8; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>D'Youville Manor, Lowell, Mass. v. N.L.R.B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. (1st Cir. 1975) 526 F.2d 3, 6; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Klaue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (9th Cir. 1975) 523 F.2d 410, 413; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Howell Automatic Mach. Company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (6th Cir. 1972), 454 F.2d 1077, 1080-83; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Agawam Food Mart, Inc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. (1st Cir. 1970) 424 F.2d 1045, 1947; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cain's Coffee Company v. N.L.R.B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. (10th Cir. 1968), 404 F.2d 1172, 1175-6.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Patrick Plaza Dodge, Inc., supra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 522 F.2d at 807.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This same principle was stated in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Mueller Brass Co., supra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, 509 F.2d at 173, where in reply to an argument by the Board to the contrary, the Court said: </t>
+    </r>
+  </si>
+  <si>
+    <t>"To follow the Board's lead in this case would be effectively to insulate every Union activist from investigation or discipline for violation of Company rules, especially at the time of a Union election."</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Consolidated D. Elec. Co., Div. of C. Corp., supra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (469 F.2d at p. 1024, n. 21), we said, quoting </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Ogle Protection Service, Inc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. (6th Cir. 1967), 375 F.2d 497, 505-506, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cert. den</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">., 389 U.S. 843, 19 L. Ed. 2d 108, 88 S. Ct. 84: </t>
+    </r>
+  </si>
+  <si>
+    <t>"Membership in a union does not immunize employees against discharge for reasons other than union hostility. * * * An employer's stated or avowed opposition to a labor union is not, in itself, sufficient evidence to sustain a finding that his employees were discharged because of discrimination against the union."</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nix v. N.L.R.B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. (5th Cir. 1969), 418 F.2d 1001, 1008, the Court said: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"'* * * where "a man has given his employer just cause for his discharge, the Board cannot save him by showing that he was pro-union and his employer anti-union."'" (Quoting from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Atkins Saw Division</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 5 Cir. 1968, 399 F.2d 907 at 912).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**9]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.L.R.B. v. Consolidated D. Elec. Co., Div. of C. Corp., supra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 469 F.2d at 1024.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>See, N.L.R.B. v. Freeman Company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (8th Cir. 1972), 471 F.2d 708, 710.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In applying these rules to this case, we begin with the fact that the record is completely devoid of any evidence of anti-union  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*1338]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  animus on the part of the employer. To the contrary, the record indicates that Firestone had been long habituated to unionism and that there had been a good harmonious working relationship between it and the union over a period of many years. There was no credible evidence in the record of any antiunion conduct on the part of Firestone. The sole ground on which the Board seeks to support its finding of "pretextual discharge" is that Trowbridge had been a union steward and as such had been abrasive in his representations to his employer in that capacity. This suggestion loses persuasiveness when it is observed that there were some fifty other union stewards in this plant. It is not to be supposed that they were any less vigilant or aggressive in the performance </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  of their function as a union steward than Trowbridge; indeed, the Board found that other stewards were equally or more aggressive in their performance as union stewards than Trowbridge. Certainly, they had been longer engaged in such activity and were more expert in it than Trowbridge. There was no suggestion in the record that any one of these other stewards had ever been disciplined on pretextual grounds because of their zeal in the performance of their duties as union steward. No reason is intimated why the employer should have been inclined to act any differently in its treatment of Trowbridge than in that of any of the other stewards. Nor could the employer have had any reason to assume that Trowbridge's successor as steward would have been any less aggressive. Actually, Trowbridge's activity as a steward seems to be exaggerated in the administrative law judge's findings, as approved by the Board. He was unfamiliar with the collective bargaining agreement by his own admission and had to seek advice from other stewards in making any complaints. A person with so little familiarity with his role as a steward hardly fits the role of an aggressive advocate of rights under the collective </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**11]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  bargaining agreement. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The only circumstance which the Board latches onto in support of its conclusion is that the employer did not discover the falsification of the employment application by Trowbridge until after he had become a union steward. Firestone concedes that it did not discover the falsification in Trowbridge's prior employment record until after he had been working a little over two months and after he had become a union steward. Firestone apparently had no reason to question the accuracy of Trowbridge's representation until a fellow employee told a supervisory official of Firestone that Trowbridge had recently been "fired" from two other prior jobs. That information naturally triggered an immediate investigation which resulted in the discovery of Trowbridge's prior discharges. We do not consider the delay in investigating Trowbridge's prior employment provides a basis for a genuine suspicion, much less a substantial basis for a belief, of impropriety in Firestone's action. The Board recognized, as we have already stated, that, under its "long-established, company-wide policy," Firestone would, when and if it discovered this type of falsification of an employee's employment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**12]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  application, have discharged him; and this apparently would be true whenever the falsification was discovered. It followed that policy here. Simply because Firestone did not discover such falsification either before or immediately after Trowbridge was hired, does not provide sufficient evidence to impugn Firestone's motive in discharging him. We do not find significant that Trowbridge was a union steward. Such a circumstance loses significance in a case where, as here, the employer freely recognizes the union, works with the union, and has, according to this record, evidenced no antiunion animus whatsoever.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should, also, be borne in mind that  [HN3] an essential element in the Board's finding is proof of knowledge on the part of the company official who actually made the discharge decision of Trowbridge's activities as a union steward. Absent any such knowledge, it is manifest that a finding that the discharge was motivated by such fact cannot be found to be based on any substantial evidence. And, as we have seen, the burden  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[*1339]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  of establishing such knowledge rested on the Board. This burden it could not sustain if its finding to that effect rested on mere suspicion or pure conjecture. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**13]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  But the finding of the Board on this point does rest on mere suspicion and conjecture, as the language of the Board itself clearly establishes. Wukovits was "the company official who made the decision to discharge Trowbridge. " This is uncontradicted in the record. Wukovits testified unequivocally that he did not know when he made this decision that Trowbridge was a union steward. Support for his testimony is found in the fact that the list of stewards periodically furnished Firestone by the union itself at the time did not list Trowbridge as a union steward. The Board seeks to supply contrary evidence, however, by drawing upon Trowbridge's testimony that, in his capacity as a union steward, he had made complaints to his supervisors, Fields and Hubbard, as a predicate for the pure conjecture that "it is improbable that both Fields and Hubbard failed to convey to Wukovits their displeasure with Trowbridge's repeated employee complaints as steward." This is the sole basis on which the Board would find that Wukovits knew at the time he directed Trowbridge's discharge that the latter was a union steward. It is mere conjecture. Such supposition of the Board cannot rise to the level of credible </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[**14]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  evidence and is ineffective to refute Wukovits' testimony of want of knowledge or information.</t>
+    </r>
+  </si>
+  <si>
+    <t>We find that the order of the Board finding that Trowbridge's discharge was motivated by his union activities is not supported by substantial evidence, and accordingly deny enforcement.</t>
+  </si>
+  <si>
+    <r>
+      <t>ENFORCEMENT DENIED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.  </t>
+    </r>
+  </si>
+  <si>
+    <t>That firestone fires anyone who is found to have falsified an application, regardless of the proven performance of the employee</t>
   </si>
 </sst>
 </file>
@@ -23510,8 +24792,8 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24064,7 +25346,80 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:25" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7715</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1976</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
@@ -24117,6 +25472,7 @@
     <hyperlink ref="X6" location="Opinion_47249!A1" display="Opinion_47249!A1"/>
     <hyperlink ref="X7" location="Opinion_16012!A1" display="Opinion_16012!A1"/>
     <hyperlink ref="X8" location="Opinion_19884!A1" display="Opinion_19884!A1"/>
+    <hyperlink ref="X9" location="Opinion_7715!A1" display="Opinion_7715!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24125,6 +25481,275 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A253"/>
   <sheetViews>
@@ -25197,7 +26822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
@@ -25624,7 +27249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A111"/>
   <sheetViews>
@@ -26107,7 +27732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A48"/>
   <sheetViews>
@@ -26335,7 +27960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A108"/>
   <sheetViews>
